--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901411156217871</v>
+        <v>0.9901411156217891</v>
       </c>
       <c r="D2">
-        <v>1.010696505599577</v>
+        <v>1.010696505599578</v>
       </c>
       <c r="E2">
-        <v>0.9810528398658283</v>
+        <v>0.9810528398658291</v>
       </c>
       <c r="F2">
-        <v>1.004421313403275</v>
+        <v>1.004421313403277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042173395100309</v>
+        <v>1.04217339510031</v>
       </c>
       <c r="J2">
-        <v>1.012620756663165</v>
+        <v>1.012620756663167</v>
       </c>
       <c r="K2">
-        <v>1.022008805656511</v>
+        <v>1.022008805656513</v>
       </c>
       <c r="L2">
-        <v>0.9927826058749868</v>
+        <v>0.9927826058749876</v>
       </c>
       <c r="M2">
-        <v>1.015819394060476</v>
+        <v>1.015819394060477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968214424637839</v>
+        <v>0.9968214424637843</v>
       </c>
       <c r="D3">
         <v>1.015645521352693</v>
       </c>
       <c r="E3">
-        <v>0.986148894906219</v>
+        <v>0.9861488949062189</v>
       </c>
       <c r="F3">
         <v>1.010440256802917</v>
@@ -480,7 +480,7 @@
         <v>1.017399134821207</v>
       </c>
       <c r="K3">
-        <v>1.026082053331643</v>
+        <v>1.026082053331642</v>
       </c>
       <c r="L3">
         <v>0.9969621256389106</v>
@@ -515,13 +515,13 @@
         <v>1.045694223623584</v>
       </c>
       <c r="J4">
-        <v>1.020398176274182</v>
+        <v>1.020398176274181</v>
       </c>
       <c r="K4">
         <v>1.028635534308245</v>
       </c>
       <c r="L4">
-        <v>0.9996004099091417</v>
+        <v>0.9996004099091419</v>
       </c>
       <c r="M4">
         <v>1.024163068856955</v>
@@ -544,7 +544,7 @@
         <v>0.9907100358560462</v>
       </c>
       <c r="F5">
-        <v>1.015804992155765</v>
+        <v>1.015804992155766</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,10 +553,10 @@
         <v>1.046249020250597</v>
       </c>
       <c r="J5">
-        <v>1.021637773686606</v>
+        <v>1.021637773686607</v>
       </c>
       <c r="K5">
-        <v>1.029690218313944</v>
+        <v>1.029690218313945</v>
       </c>
       <c r="L5">
         <v>1.000694439416843</v>
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.001043861412138</v>
+        <v>1.001043861412137</v>
       </c>
       <c r="D7">
         <v>1.018775646908699</v>
       </c>
       <c r="E7">
-        <v>0.9893899433768646</v>
+        <v>0.9893899433768641</v>
       </c>
       <c r="F7">
-        <v>1.014254535046582</v>
+        <v>1.014254535046581</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.020414821820115</v>
       </c>
       <c r="K7">
-        <v>1.028649699806881</v>
+        <v>1.02864969980688</v>
       </c>
       <c r="L7">
-        <v>0.9996150868098957</v>
+        <v>0.9996150868098953</v>
       </c>
       <c r="M7">
         <v>1.024180966742335</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924252818796463</v>
+        <v>0.9924252818796466</v>
       </c>
       <c r="D8">
-        <v>1.012388204012223</v>
+        <v>1.012388204012224</v>
       </c>
       <c r="E8">
-        <v>0.982791009288431</v>
+        <v>0.9827910092884311</v>
       </c>
       <c r="F8">
         <v>1.006477192250524</v>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042918805834547</v>
+        <v>1.042918805834548</v>
       </c>
       <c r="J8">
-        <v>1.014255515800876</v>
+        <v>1.014255515800877</v>
       </c>
       <c r="K8">
         <v>1.023402943711464</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762179870486093</v>
+        <v>0.976217987048609</v>
       </c>
       <c r="D9">
-        <v>1.00039832131115</v>
+        <v>1.000398321311149</v>
       </c>
       <c r="E9">
-        <v>0.9705515229824084</v>
+        <v>0.9705515229824081</v>
       </c>
       <c r="F9">
-        <v>0.9919373662600491</v>
+        <v>0.9919373662600487</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>1.002639434388956</v>
       </c>
       <c r="K9">
-        <v>1.013484939333815</v>
+        <v>1.013484939333814</v>
       </c>
       <c r="L9">
-        <v>0.9841411617648211</v>
+        <v>0.9841411617648208</v>
       </c>
       <c r="M9">
         <v>1.005162622706109</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.964611429606987</v>
+        <v>0.9646114296069868</v>
       </c>
       <c r="D10">
-        <v>0.991835460213713</v>
+        <v>0.9918354602137127</v>
       </c>
       <c r="E10">
-        <v>0.9619167499030272</v>
+        <v>0.9619167499030267</v>
       </c>
       <c r="F10">
-        <v>0.9815926765943531</v>
+        <v>0.9815926765943526</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033663848941037</v>
       </c>
       <c r="J10">
-        <v>0.9943030346215088</v>
+        <v>0.9943030346215084</v>
       </c>
       <c r="K10">
-        <v>1.006353709444123</v>
+        <v>1.006353709444122</v>
       </c>
       <c r="L10">
-        <v>0.9770094240800962</v>
+        <v>0.9770094240800956</v>
       </c>
       <c r="M10">
-        <v>0.9963024292049714</v>
+        <v>0.9963024292049708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>0.9879730377920852</v>
       </c>
       <c r="E11">
-        <v>0.9580488013597955</v>
+        <v>0.9580488013597961</v>
       </c>
       <c r="F11">
-        <v>0.9769356946393496</v>
+        <v>0.97693569463935</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.003125385907808</v>
       </c>
       <c r="L11">
-        <v>0.9738077267864359</v>
+        <v>0.9738077267864362</v>
       </c>
       <c r="M11">
-        <v>0.9923060837880184</v>
+        <v>0.9923060837880189</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9573810384140302</v>
       </c>
       <c r="D12">
-        <v>0.9865132351583222</v>
+        <v>0.9865132351583221</v>
       </c>
       <c r="E12">
-        <v>0.9565911189654573</v>
+        <v>0.9565911189654575</v>
       </c>
       <c r="F12">
-        <v>0.9751769541191462</v>
+        <v>0.9751769541191463</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0.9726000540492038</v>
       </c>
       <c r="M12">
-        <v>0.9907956938794009</v>
+        <v>0.990795693879401</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9578084077749992</v>
+        <v>0.9578084077749996</v>
       </c>
       <c r="D13">
-        <v>0.9868275376563892</v>
+        <v>0.9868275376563895</v>
       </c>
       <c r="E13">
-        <v>0.9569047720661569</v>
+        <v>0.9569047720661574</v>
       </c>
       <c r="F13">
-        <v>0.9755555578651979</v>
+        <v>0.9755555578651985</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031352195103376</v>
       </c>
       <c r="J13">
-        <v>0.9894127031847584</v>
+        <v>0.9894127031847588</v>
       </c>
       <c r="K13">
         <v>1.002166629838043</v>
       </c>
       <c r="L13">
-        <v>0.9728599608285462</v>
+        <v>0.9728599608285466</v>
       </c>
       <c r="M13">
-        <v>0.9911208867369987</v>
+        <v>0.9911208867369994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592022850290365</v>
+        <v>0.959202285029036</v>
       </c>
       <c r="D14">
-        <v>0.9878528943699818</v>
+        <v>0.9878528943699817</v>
       </c>
       <c r="E14">
-        <v>0.957928746013638</v>
+        <v>0.9579287460136382</v>
       </c>
       <c r="F14">
-        <v>0.9767909206312502</v>
+        <v>0.9767909206312504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031827046855321</v>
+        <v>1.031827046855322</v>
       </c>
       <c r="J14">
-        <v>0.9904148583874637</v>
+        <v>0.9904148583874632</v>
       </c>
       <c r="K14">
         <v>1.003024856511357</v>
       </c>
       <c r="L14">
-        <v>0.9737082842872274</v>
+        <v>0.9737082842872276</v>
       </c>
       <c r="M14">
-        <v>0.992181776383061</v>
+        <v>0.9921817763830612</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600562360844954</v>
+        <v>0.960056236084496</v>
       </c>
       <c r="D15">
-        <v>0.9884812605293155</v>
+        <v>0.9884812605293161</v>
       </c>
       <c r="E15">
-        <v>0.9585568237242335</v>
+        <v>0.958556823724234</v>
       </c>
       <c r="F15">
-        <v>0.9775481635355503</v>
+        <v>0.9775481635355506</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032117662593848</v>
       </c>
       <c r="J15">
-        <v>0.9910287844330141</v>
+        <v>0.9910287844330147</v>
       </c>
       <c r="K15">
-        <v>1.0035505662471</v>
+        <v>1.003550566247101</v>
       </c>
       <c r="L15">
-        <v>0.9742284806028871</v>
+        <v>0.9742284806028877</v>
       </c>
       <c r="M15">
-        <v>0.9928319219095297</v>
+        <v>0.9928319219095303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.964954700338994</v>
+        <v>0.9649547003389942</v>
       </c>
       <c r="D16">
-        <v>0.9920883815931796</v>
+        <v>0.9920883815931799</v>
       </c>
       <c r="E16">
-        <v>0.9621706042760044</v>
+        <v>0.962170604276005</v>
       </c>
       <c r="F16">
-        <v>0.9818978167310056</v>
+        <v>0.981897816731006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033780080292773</v>
+        <v>1.033780080292774</v>
       </c>
       <c r="J16">
-        <v>0.9945497303230398</v>
+        <v>0.9945497303230401</v>
       </c>
       <c r="K16">
-        <v>1.00656486464167</v>
+        <v>1.006564864641671</v>
       </c>
       <c r="L16">
-        <v>0.9772194045714176</v>
+        <v>0.9772194045714182</v>
       </c>
       <c r="M16">
-        <v>0.9965641241667325</v>
+        <v>0.9965641241667328</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679664863952392</v>
+        <v>0.967966486395239</v>
       </c>
       <c r="D17">
         <v>0.994308360605936</v>
@@ -1000,7 +1000,7 @@
         <v>0.9644018320549925</v>
       </c>
       <c r="F17">
-        <v>0.9845771722598341</v>
+        <v>0.9845771722598345</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.034798054312068</v>
       </c>
       <c r="J17">
-        <v>0.9967138672511796</v>
+        <v>0.9967138672511797</v>
       </c>
       <c r="K17">
         <v>1.008416926305624</v>
       </c>
       <c r="L17">
-        <v>0.9790642072845817</v>
+        <v>0.9790642072845819</v>
       </c>
       <c r="M17">
-        <v>0.9988611336136447</v>
+        <v>0.998861133613645</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1035,10 +1035,10 @@
         <v>0.9955884545065953</v>
       </c>
       <c r="E18">
-        <v>0.9656909339578934</v>
+        <v>0.9656909339578941</v>
       </c>
       <c r="F18">
-        <v>0.986123017203795</v>
+        <v>0.9861230172037954</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.035383182297267</v>
       </c>
       <c r="J18">
-        <v>0.9979607780072351</v>
+        <v>0.9979607780072353</v>
       </c>
       <c r="K18">
         <v>1.009483773959006</v>
       </c>
       <c r="L18">
-        <v>0.9801293867355099</v>
+        <v>0.9801293867355106</v>
       </c>
       <c r="M18">
         <v>1.00018566330071</v>
@@ -1070,13 +1070,13 @@
         <v>0.9702905299813293</v>
       </c>
       <c r="D19">
-        <v>0.9960224800910626</v>
+        <v>0.9960224800910629</v>
       </c>
       <c r="E19">
-        <v>0.9661284369758398</v>
+        <v>0.9661284369758392</v>
       </c>
       <c r="F19">
-        <v>0.9866472945139543</v>
+        <v>0.9866472945139541</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035581258051367</v>
       </c>
       <c r="J19">
-        <v>0.9983833881957898</v>
+        <v>0.99838338819579</v>
       </c>
       <c r="K19">
-        <v>1.009845311538017</v>
+        <v>1.009845311538018</v>
       </c>
       <c r="L19">
-        <v>0.9804907815630007</v>
+        <v>0.9804907815630003</v>
       </c>
       <c r="M19">
-        <v>1.000634758292118</v>
+        <v>1.000634758292117</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676455449921227</v>
+        <v>0.9676455449921241</v>
       </c>
       <c r="D20">
-        <v>0.9940717198541444</v>
+        <v>0.9940717198541456</v>
       </c>
       <c r="E20">
-        <v>0.9641637291430606</v>
+        <v>0.9641637291430611</v>
       </c>
       <c r="F20">
-        <v>0.9842914742225712</v>
+        <v>0.9842914742225723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034689735540332</v>
+        <v>1.034689735540333</v>
       </c>
       <c r="J20">
-        <v>0.9964832817671576</v>
+        <v>0.9964832817671587</v>
       </c>
       <c r="K20">
-        <v>1.008219618101331</v>
+        <v>1.008219618101332</v>
       </c>
       <c r="L20">
-        <v>0.9788674102961653</v>
+        <v>0.9788674102961658</v>
       </c>
       <c r="M20">
-        <v>0.9986162798501284</v>
+        <v>0.9986162798501292</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587928417222651</v>
+        <v>0.9587928417222654</v>
       </c>
       <c r="D21">
-        <v>0.9875516623190093</v>
+        <v>0.9875516623190095</v>
       </c>
       <c r="E21">
-        <v>0.9576278030992631</v>
+        <v>0.9576278030992633</v>
       </c>
       <c r="F21">
-        <v>0.9764279549788261</v>
+        <v>0.9764279549788264</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031687624260179</v>
       </c>
       <c r="J21">
-        <v>0.990120488999206</v>
+        <v>0.9901204889992062</v>
       </c>
       <c r="K21">
-        <v>1.002772773440805</v>
+        <v>1.002772773440806</v>
       </c>
       <c r="L21">
-        <v>0.9734589942551333</v>
+        <v>0.9734589942551338</v>
       </c>
       <c r="M21">
-        <v>0.9918701045690343</v>
+        <v>0.9918701045690347</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530168360702556</v>
+        <v>0.9530168360702527</v>
       </c>
       <c r="D22">
-        <v>0.9833057596208157</v>
+        <v>0.9833057596208136</v>
       </c>
       <c r="E22">
-        <v>0.9533962658059247</v>
+        <v>0.9533962658059236</v>
       </c>
       <c r="F22">
-        <v>0.9713151612379294</v>
+        <v>0.9713151612379273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029715451069679</v>
+        <v>1.029715451069677</v>
       </c>
       <c r="J22">
-        <v>0.9859672220741623</v>
+        <v>0.9859672220741598</v>
       </c>
       <c r="K22">
-        <v>0.9992153490465706</v>
+        <v>0.9992153490465683</v>
       </c>
       <c r="L22">
-        <v>0.9699511538412096</v>
+        <v>0.9699511538412084</v>
       </c>
       <c r="M22">
-        <v>0.9874771229921426</v>
+        <v>0.9874771229921405</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9560997787517544</v>
+        <v>0.956099778751755</v>
       </c>
       <c r="D23">
-        <v>0.9855711701306947</v>
+        <v>0.9855711701306954</v>
       </c>
       <c r="E23">
-        <v>0.9556516313816501</v>
+        <v>0.9556516313816503</v>
       </c>
       <c r="F23">
-        <v>0.9740423572189627</v>
+        <v>0.9740423572189629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030769312566901</v>
+        <v>1.030769312566902</v>
       </c>
       <c r="J23">
-        <v>0.9881841553748408</v>
+        <v>0.9881841553748412</v>
       </c>
       <c r="K23">
         <v>1.001114406676483</v>
       </c>
       <c r="L23">
-        <v>0.9718213941348979</v>
+        <v>0.9718213941348981</v>
       </c>
       <c r="M23">
-        <v>0.989820991302314</v>
+        <v>0.9898209913023142</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677906293557589</v>
+        <v>0.9677906293557587</v>
       </c>
       <c r="D24">
-        <v>0.9941786931654282</v>
+        <v>0.9941786931654281</v>
       </c>
       <c r="E24">
-        <v>0.9642713556046641</v>
+        <v>0.9642713556046645</v>
       </c>
       <c r="F24">
-        <v>0.9844206211687812</v>
+        <v>0.9844206211687807</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034738706756227</v>
       </c>
       <c r="J24">
-        <v>0.9965875208451302</v>
+        <v>0.9965875208451299</v>
       </c>
       <c r="K24">
         <v>1.008308814559836</v>
       </c>
       <c r="L24">
-        <v>0.978956367853571</v>
+        <v>0.9789563678535712</v>
       </c>
       <c r="M24">
-        <v>0.9987269657920331</v>
+        <v>0.9987269657920327</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9805400365233052</v>
+        <v>0.9805400365233055</v>
       </c>
       <c r="D25">
         <v>1.00359235890478</v>
       </c>
       <c r="E25">
-        <v>0.9737943956631754</v>
+        <v>0.9737943956631755</v>
       </c>
       <c r="F25">
         <v>0.9958039381315253</v>
@@ -1313,7 +1313,7 @@
         <v>1.03900862365459</v>
       </c>
       <c r="J25">
-        <v>1.005740535026541</v>
+        <v>1.005740535026542</v>
       </c>
       <c r="K25">
         <v>1.01613516292265</v>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901411156217891</v>
+        <v>0.9901411156217871</v>
       </c>
       <c r="D2">
-        <v>1.010696505599578</v>
+        <v>1.010696505599577</v>
       </c>
       <c r="E2">
-        <v>0.9810528398658291</v>
+        <v>0.9810528398658283</v>
       </c>
       <c r="F2">
-        <v>1.004421313403277</v>
+        <v>1.004421313403275</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04217339510031</v>
+        <v>1.042173395100309</v>
       </c>
       <c r="J2">
-        <v>1.012620756663167</v>
+        <v>1.012620756663165</v>
       </c>
       <c r="K2">
-        <v>1.022008805656513</v>
+        <v>1.022008805656511</v>
       </c>
       <c r="L2">
-        <v>0.9927826058749876</v>
+        <v>0.9927826058749868</v>
       </c>
       <c r="M2">
-        <v>1.015819394060477</v>
+        <v>1.015819394060476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968214424637843</v>
+        <v>0.9968214424637839</v>
       </c>
       <c r="D3">
         <v>1.015645521352693</v>
       </c>
       <c r="E3">
-        <v>0.9861488949062189</v>
+        <v>0.986148894906219</v>
       </c>
       <c r="F3">
         <v>1.010440256802917</v>
@@ -480,7 +480,7 @@
         <v>1.017399134821207</v>
       </c>
       <c r="K3">
-        <v>1.026082053331642</v>
+        <v>1.026082053331643</v>
       </c>
       <c r="L3">
         <v>0.9969621256389106</v>
@@ -515,13 +515,13 @@
         <v>1.045694223623584</v>
       </c>
       <c r="J4">
-        <v>1.020398176274181</v>
+        <v>1.020398176274182</v>
       </c>
       <c r="K4">
         <v>1.028635534308245</v>
       </c>
       <c r="L4">
-        <v>0.9996004099091419</v>
+        <v>0.9996004099091417</v>
       </c>
       <c r="M4">
         <v>1.024163068856955</v>
@@ -544,7 +544,7 @@
         <v>0.9907100358560462</v>
       </c>
       <c r="F5">
-        <v>1.015804992155766</v>
+        <v>1.015804992155765</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,10 +553,10 @@
         <v>1.046249020250597</v>
       </c>
       <c r="J5">
-        <v>1.021637773686607</v>
+        <v>1.021637773686606</v>
       </c>
       <c r="K5">
-        <v>1.029690218313945</v>
+        <v>1.029690218313944</v>
       </c>
       <c r="L5">
         <v>1.000694439416843</v>
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001043861412137</v>
+        <v>1.001043861412138</v>
       </c>
       <c r="D7">
         <v>1.018775646908699</v>
       </c>
       <c r="E7">
-        <v>0.9893899433768641</v>
+        <v>0.9893899433768646</v>
       </c>
       <c r="F7">
-        <v>1.014254535046581</v>
+        <v>1.014254535046582</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.020414821820115</v>
       </c>
       <c r="K7">
-        <v>1.02864969980688</v>
+        <v>1.028649699806881</v>
       </c>
       <c r="L7">
-        <v>0.9996150868098953</v>
+        <v>0.9996150868098957</v>
       </c>
       <c r="M7">
         <v>1.024180966742335</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924252818796466</v>
+        <v>0.9924252818796463</v>
       </c>
       <c r="D8">
-        <v>1.012388204012224</v>
+        <v>1.012388204012223</v>
       </c>
       <c r="E8">
-        <v>0.9827910092884311</v>
+        <v>0.982791009288431</v>
       </c>
       <c r="F8">
         <v>1.006477192250524</v>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042918805834548</v>
+        <v>1.042918805834547</v>
       </c>
       <c r="J8">
-        <v>1.014255515800877</v>
+        <v>1.014255515800876</v>
       </c>
       <c r="K8">
         <v>1.023402943711464</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.976217987048609</v>
+        <v>0.9762179870486093</v>
       </c>
       <c r="D9">
-        <v>1.000398321311149</v>
+        <v>1.00039832131115</v>
       </c>
       <c r="E9">
-        <v>0.9705515229824081</v>
+        <v>0.9705515229824084</v>
       </c>
       <c r="F9">
-        <v>0.9919373662600487</v>
+        <v>0.9919373662600491</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>1.002639434388956</v>
       </c>
       <c r="K9">
-        <v>1.013484939333814</v>
+        <v>1.013484939333815</v>
       </c>
       <c r="L9">
-        <v>0.9841411617648208</v>
+        <v>0.9841411617648211</v>
       </c>
       <c r="M9">
         <v>1.005162622706109</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9646114296069868</v>
+        <v>0.964611429606987</v>
       </c>
       <c r="D10">
-        <v>0.9918354602137127</v>
+        <v>0.991835460213713</v>
       </c>
       <c r="E10">
-        <v>0.9619167499030267</v>
+        <v>0.9619167499030272</v>
       </c>
       <c r="F10">
-        <v>0.9815926765943526</v>
+        <v>0.9815926765943531</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033663848941037</v>
       </c>
       <c r="J10">
-        <v>0.9943030346215084</v>
+        <v>0.9943030346215088</v>
       </c>
       <c r="K10">
-        <v>1.006353709444122</v>
+        <v>1.006353709444123</v>
       </c>
       <c r="L10">
-        <v>0.9770094240800956</v>
+        <v>0.9770094240800962</v>
       </c>
       <c r="M10">
-        <v>0.9963024292049708</v>
+        <v>0.9963024292049714</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>0.9879730377920852</v>
       </c>
       <c r="E11">
-        <v>0.9580488013597961</v>
+        <v>0.9580488013597955</v>
       </c>
       <c r="F11">
-        <v>0.97693569463935</v>
+        <v>0.9769356946393496</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.003125385907808</v>
       </c>
       <c r="L11">
-        <v>0.9738077267864362</v>
+        <v>0.9738077267864359</v>
       </c>
       <c r="M11">
-        <v>0.9923060837880189</v>
+        <v>0.9923060837880184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9573810384140302</v>
       </c>
       <c r="D12">
-        <v>0.9865132351583221</v>
+        <v>0.9865132351583222</v>
       </c>
       <c r="E12">
-        <v>0.9565911189654575</v>
+        <v>0.9565911189654573</v>
       </c>
       <c r="F12">
-        <v>0.9751769541191463</v>
+        <v>0.9751769541191462</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0.9726000540492038</v>
       </c>
       <c r="M12">
-        <v>0.990795693879401</v>
+        <v>0.9907956938794009</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9578084077749996</v>
+        <v>0.9578084077749992</v>
       </c>
       <c r="D13">
-        <v>0.9868275376563895</v>
+        <v>0.9868275376563892</v>
       </c>
       <c r="E13">
-        <v>0.9569047720661574</v>
+        <v>0.9569047720661569</v>
       </c>
       <c r="F13">
-        <v>0.9755555578651985</v>
+        <v>0.9755555578651979</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031352195103376</v>
       </c>
       <c r="J13">
-        <v>0.9894127031847588</v>
+        <v>0.9894127031847584</v>
       </c>
       <c r="K13">
         <v>1.002166629838043</v>
       </c>
       <c r="L13">
-        <v>0.9728599608285466</v>
+        <v>0.9728599608285462</v>
       </c>
       <c r="M13">
-        <v>0.9911208867369994</v>
+        <v>0.9911208867369987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.959202285029036</v>
+        <v>0.9592022850290365</v>
       </c>
       <c r="D14">
-        <v>0.9878528943699817</v>
+        <v>0.9878528943699818</v>
       </c>
       <c r="E14">
-        <v>0.9579287460136382</v>
+        <v>0.957928746013638</v>
       </c>
       <c r="F14">
-        <v>0.9767909206312504</v>
+        <v>0.9767909206312502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031827046855322</v>
+        <v>1.031827046855321</v>
       </c>
       <c r="J14">
-        <v>0.9904148583874632</v>
+        <v>0.9904148583874637</v>
       </c>
       <c r="K14">
         <v>1.003024856511357</v>
       </c>
       <c r="L14">
-        <v>0.9737082842872276</v>
+        <v>0.9737082842872274</v>
       </c>
       <c r="M14">
-        <v>0.9921817763830612</v>
+        <v>0.992181776383061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.960056236084496</v>
+        <v>0.9600562360844954</v>
       </c>
       <c r="D15">
-        <v>0.9884812605293161</v>
+        <v>0.9884812605293155</v>
       </c>
       <c r="E15">
-        <v>0.958556823724234</v>
+        <v>0.9585568237242335</v>
       </c>
       <c r="F15">
-        <v>0.9775481635355506</v>
+        <v>0.9775481635355503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032117662593848</v>
       </c>
       <c r="J15">
-        <v>0.9910287844330147</v>
+        <v>0.9910287844330141</v>
       </c>
       <c r="K15">
-        <v>1.003550566247101</v>
+        <v>1.0035505662471</v>
       </c>
       <c r="L15">
-        <v>0.9742284806028877</v>
+        <v>0.9742284806028871</v>
       </c>
       <c r="M15">
-        <v>0.9928319219095303</v>
+        <v>0.9928319219095297</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9649547003389942</v>
+        <v>0.964954700338994</v>
       </c>
       <c r="D16">
-        <v>0.9920883815931799</v>
+        <v>0.9920883815931796</v>
       </c>
       <c r="E16">
-        <v>0.962170604276005</v>
+        <v>0.9621706042760044</v>
       </c>
       <c r="F16">
-        <v>0.981897816731006</v>
+        <v>0.9818978167310056</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033780080292774</v>
+        <v>1.033780080292773</v>
       </c>
       <c r="J16">
-        <v>0.9945497303230401</v>
+        <v>0.9945497303230398</v>
       </c>
       <c r="K16">
-        <v>1.006564864641671</v>
+        <v>1.00656486464167</v>
       </c>
       <c r="L16">
-        <v>0.9772194045714182</v>
+        <v>0.9772194045714176</v>
       </c>
       <c r="M16">
-        <v>0.9965641241667328</v>
+        <v>0.9965641241667325</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967966486395239</v>
+        <v>0.9679664863952392</v>
       </c>
       <c r="D17">
         <v>0.994308360605936</v>
@@ -1000,7 +1000,7 @@
         <v>0.9644018320549925</v>
       </c>
       <c r="F17">
-        <v>0.9845771722598345</v>
+        <v>0.9845771722598341</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.034798054312068</v>
       </c>
       <c r="J17">
-        <v>0.9967138672511797</v>
+        <v>0.9967138672511796</v>
       </c>
       <c r="K17">
         <v>1.008416926305624</v>
       </c>
       <c r="L17">
-        <v>0.9790642072845819</v>
+        <v>0.9790642072845817</v>
       </c>
       <c r="M17">
-        <v>0.998861133613645</v>
+        <v>0.9988611336136447</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1035,10 +1035,10 @@
         <v>0.9955884545065953</v>
       </c>
       <c r="E18">
-        <v>0.9656909339578941</v>
+        <v>0.9656909339578934</v>
       </c>
       <c r="F18">
-        <v>0.9861230172037954</v>
+        <v>0.986123017203795</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.035383182297267</v>
       </c>
       <c r="J18">
-        <v>0.9979607780072353</v>
+        <v>0.9979607780072351</v>
       </c>
       <c r="K18">
         <v>1.009483773959006</v>
       </c>
       <c r="L18">
-        <v>0.9801293867355106</v>
+        <v>0.9801293867355099</v>
       </c>
       <c r="M18">
         <v>1.00018566330071</v>
@@ -1070,13 +1070,13 @@
         <v>0.9702905299813293</v>
       </c>
       <c r="D19">
-        <v>0.9960224800910629</v>
+        <v>0.9960224800910626</v>
       </c>
       <c r="E19">
-        <v>0.9661284369758392</v>
+        <v>0.9661284369758398</v>
       </c>
       <c r="F19">
-        <v>0.9866472945139541</v>
+        <v>0.9866472945139543</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035581258051367</v>
       </c>
       <c r="J19">
-        <v>0.99838338819579</v>
+        <v>0.9983833881957898</v>
       </c>
       <c r="K19">
-        <v>1.009845311538018</v>
+        <v>1.009845311538017</v>
       </c>
       <c r="L19">
-        <v>0.9804907815630003</v>
+        <v>0.9804907815630007</v>
       </c>
       <c r="M19">
-        <v>1.000634758292117</v>
+        <v>1.000634758292118</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676455449921241</v>
+        <v>0.9676455449921227</v>
       </c>
       <c r="D20">
-        <v>0.9940717198541456</v>
+        <v>0.9940717198541444</v>
       </c>
       <c r="E20">
-        <v>0.9641637291430611</v>
+        <v>0.9641637291430606</v>
       </c>
       <c r="F20">
-        <v>0.9842914742225723</v>
+        <v>0.9842914742225712</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034689735540333</v>
+        <v>1.034689735540332</v>
       </c>
       <c r="J20">
-        <v>0.9964832817671587</v>
+        <v>0.9964832817671576</v>
       </c>
       <c r="K20">
-        <v>1.008219618101332</v>
+        <v>1.008219618101331</v>
       </c>
       <c r="L20">
-        <v>0.9788674102961658</v>
+        <v>0.9788674102961653</v>
       </c>
       <c r="M20">
-        <v>0.9986162798501292</v>
+        <v>0.9986162798501284</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587928417222654</v>
+        <v>0.9587928417222651</v>
       </c>
       <c r="D21">
-        <v>0.9875516623190095</v>
+        <v>0.9875516623190093</v>
       </c>
       <c r="E21">
-        <v>0.9576278030992633</v>
+        <v>0.9576278030992631</v>
       </c>
       <c r="F21">
-        <v>0.9764279549788264</v>
+        <v>0.9764279549788261</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031687624260179</v>
       </c>
       <c r="J21">
-        <v>0.9901204889992062</v>
+        <v>0.990120488999206</v>
       </c>
       <c r="K21">
-        <v>1.002772773440806</v>
+        <v>1.002772773440805</v>
       </c>
       <c r="L21">
-        <v>0.9734589942551338</v>
+        <v>0.9734589942551333</v>
       </c>
       <c r="M21">
-        <v>0.9918701045690347</v>
+        <v>0.9918701045690343</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530168360702527</v>
+        <v>0.9530168360702556</v>
       </c>
       <c r="D22">
-        <v>0.9833057596208136</v>
+        <v>0.9833057596208157</v>
       </c>
       <c r="E22">
-        <v>0.9533962658059236</v>
+        <v>0.9533962658059247</v>
       </c>
       <c r="F22">
-        <v>0.9713151612379273</v>
+        <v>0.9713151612379294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029715451069677</v>
+        <v>1.029715451069679</v>
       </c>
       <c r="J22">
-        <v>0.9859672220741598</v>
+        <v>0.9859672220741623</v>
       </c>
       <c r="K22">
-        <v>0.9992153490465683</v>
+        <v>0.9992153490465706</v>
       </c>
       <c r="L22">
-        <v>0.9699511538412084</v>
+        <v>0.9699511538412096</v>
       </c>
       <c r="M22">
-        <v>0.9874771229921405</v>
+        <v>0.9874771229921426</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.956099778751755</v>
+        <v>0.9560997787517544</v>
       </c>
       <c r="D23">
-        <v>0.9855711701306954</v>
+        <v>0.9855711701306947</v>
       </c>
       <c r="E23">
-        <v>0.9556516313816503</v>
+        <v>0.9556516313816501</v>
       </c>
       <c r="F23">
-        <v>0.9740423572189629</v>
+        <v>0.9740423572189627</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030769312566902</v>
+        <v>1.030769312566901</v>
       </c>
       <c r="J23">
-        <v>0.9881841553748412</v>
+        <v>0.9881841553748408</v>
       </c>
       <c r="K23">
         <v>1.001114406676483</v>
       </c>
       <c r="L23">
-        <v>0.9718213941348981</v>
+        <v>0.9718213941348979</v>
       </c>
       <c r="M23">
-        <v>0.9898209913023142</v>
+        <v>0.989820991302314</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677906293557587</v>
+        <v>0.9677906293557589</v>
       </c>
       <c r="D24">
-        <v>0.9941786931654281</v>
+        <v>0.9941786931654282</v>
       </c>
       <c r="E24">
-        <v>0.9642713556046645</v>
+        <v>0.9642713556046641</v>
       </c>
       <c r="F24">
-        <v>0.9844206211687807</v>
+        <v>0.9844206211687812</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034738706756227</v>
       </c>
       <c r="J24">
-        <v>0.9965875208451299</v>
+        <v>0.9965875208451302</v>
       </c>
       <c r="K24">
         <v>1.008308814559836</v>
       </c>
       <c r="L24">
-        <v>0.9789563678535712</v>
+        <v>0.978956367853571</v>
       </c>
       <c r="M24">
-        <v>0.9987269657920327</v>
+        <v>0.9987269657920331</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9805400365233055</v>
+        <v>0.9805400365233052</v>
       </c>
       <c r="D25">
         <v>1.00359235890478</v>
       </c>
       <c r="E25">
-        <v>0.9737943956631755</v>
+        <v>0.9737943956631754</v>
       </c>
       <c r="F25">
         <v>0.9958039381315253</v>
@@ -1313,7 +1313,7 @@
         <v>1.03900862365459</v>
       </c>
       <c r="J25">
-        <v>1.005740535026542</v>
+        <v>1.005740535026541</v>
       </c>
       <c r="K25">
         <v>1.01613516292265</v>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901411156217871</v>
+        <v>0.9901481637037801</v>
       </c>
       <c r="D2">
-        <v>1.010696505599577</v>
+        <v>1.010702181377786</v>
       </c>
       <c r="E2">
-        <v>0.9810528398658283</v>
+        <v>0.9810569308121245</v>
       </c>
       <c r="F2">
-        <v>1.004421313403275</v>
+        <v>1.004426469737505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042173395100309</v>
+        <v>1.042176377240575</v>
       </c>
       <c r="J2">
-        <v>1.012620756663165</v>
+        <v>1.012627588107228</v>
       </c>
       <c r="K2">
-        <v>1.022008805656511</v>
+        <v>1.022014404454612</v>
       </c>
       <c r="L2">
-        <v>0.9927826058749868</v>
+        <v>0.9927866370010917</v>
       </c>
       <c r="M2">
-        <v>1.015819394060476</v>
+        <v>1.015824479354146</v>
+      </c>
+      <c r="N2">
+        <v>1.010527715050811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968214424637839</v>
+        <v>0.9968247141537314</v>
       </c>
       <c r="D3">
-        <v>1.015645521352693</v>
+        <v>1.015648313541531</v>
       </c>
       <c r="E3">
-        <v>0.986148894906219</v>
+        <v>0.986151607938536</v>
       </c>
       <c r="F3">
-        <v>1.010440256802917</v>
+        <v>1.010442803378875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044344419311517</v>
+        <v>1.044345881222459</v>
       </c>
       <c r="J3">
-        <v>1.017399134821207</v>
+        <v>1.017402316544944</v>
       </c>
       <c r="K3">
-        <v>1.026082053331643</v>
+        <v>1.026084811150848</v>
       </c>
       <c r="L3">
-        <v>0.9969621256389106</v>
+        <v>0.9969648027235362</v>
       </c>
       <c r="M3">
-        <v>1.020941272924212</v>
+        <v>1.020943787750143</v>
+      </c>
+      <c r="N3">
+        <v>1.013807165417894</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001020540037407</v>
+        <v>1.001021473373368</v>
       </c>
       <c r="D4">
-        <v>1.018758354891971</v>
+        <v>1.018759357807414</v>
       </c>
       <c r="E4">
-        <v>0.989371998920025</v>
+        <v>0.9893738653050268</v>
       </c>
       <c r="F4">
-        <v>1.014233446663759</v>
+        <v>1.014234379282695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045694223623584</v>
+        <v>1.045694740703947</v>
       </c>
       <c r="J4">
-        <v>1.020398176274182</v>
+        <v>1.020399085801105</v>
       </c>
       <c r="K4">
-        <v>1.028635534308245</v>
+        <v>1.028636525663881</v>
       </c>
       <c r="L4">
-        <v>0.9996004099091417</v>
+        <v>0.999602253162036</v>
       </c>
       <c r="M4">
-        <v>1.024163068856955</v>
+        <v>1.024163990607409</v>
+      </c>
+      <c r="N4">
+        <v>1.015864329750651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002757772902227</v>
+        <v>1.002757746350243</v>
       </c>
       <c r="D5">
-        <v>1.020046553552303</v>
+        <v>1.020046821185479</v>
       </c>
       <c r="E5">
-        <v>0.9907100358560462</v>
+        <v>0.9907115562368869</v>
       </c>
       <c r="F5">
-        <v>1.015804992155765</v>
+        <v>1.015805262714402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046249020250597</v>
+        <v>1.046249148704285</v>
       </c>
       <c r="J5">
-        <v>1.021637773686606</v>
+        <v>1.02163774779039</v>
       </c>
       <c r="K5">
-        <v>1.029690218313944</v>
+        <v>1.029690482948718</v>
       </c>
       <c r="L5">
-        <v>1.000694439416843</v>
+        <v>1.000695941489977</v>
       </c>
       <c r="M5">
-        <v>1.025496421390091</v>
+        <v>1.025496688886272</v>
+      </c>
+      <c r="N5">
+        <v>1.016714342815994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003047857610391</v>
+        <v>1.003047671191656</v>
       </c>
       <c r="D6">
-        <v>1.02026167685424</v>
+        <v>1.020261821984581</v>
       </c>
       <c r="E6">
-        <v>0.9909337275146908</v>
+        <v>0.9909351903592937</v>
       </c>
       <c r="F6">
-        <v>1.016067539002284</v>
+        <v>1.01606769932334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046341444551806</v>
+        <v>1.046341508236822</v>
       </c>
       <c r="J6">
-        <v>1.021844693121088</v>
+        <v>1.021844511281261</v>
       </c>
       <c r="K6">
-        <v>1.029866226222658</v>
+        <v>1.029866369734859</v>
       </c>
       <c r="L6">
-        <v>1.000877266286371</v>
+        <v>1.000878711602074</v>
       </c>
       <c r="M6">
-        <v>1.0257190889541</v>
+        <v>1.025719247469423</v>
+      </c>
+      <c r="N6">
+        <v>1.016856214381557</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001043861412138</v>
+        <v>1.001044781833568</v>
       </c>
       <c r="D7">
-        <v>1.018775646908699</v>
+        <v>1.018776639934504</v>
       </c>
       <c r="E7">
-        <v>0.9893899433768646</v>
+        <v>0.9893918051005768</v>
       </c>
       <c r="F7">
-        <v>1.014254535046582</v>
+        <v>1.014255458756203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04570168595322</v>
+        <v>1.045702197807922</v>
       </c>
       <c r="J7">
-        <v>1.020414821820115</v>
+        <v>1.020415718772026</v>
       </c>
       <c r="K7">
-        <v>1.028649699806881</v>
+        <v>1.028650681391176</v>
       </c>
       <c r="L7">
-        <v>0.9996150868098957</v>
+        <v>0.9996169254680951</v>
       </c>
       <c r="M7">
-        <v>1.024180966742335</v>
+        <v>1.024181879691459</v>
+      </c>
+      <c r="N7">
+        <v>1.015875744996598</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924252818796463</v>
+        <v>0.9924310306296409</v>
       </c>
       <c r="D8">
-        <v>1.012388204012223</v>
+        <v>1.012392888511303</v>
       </c>
       <c r="E8">
-        <v>0.982791009288431</v>
+        <v>0.9827946247221567</v>
       </c>
       <c r="F8">
-        <v>1.006477192250524</v>
+        <v>1.006481450213004</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042918805834547</v>
+        <v>1.042921265701096</v>
       </c>
       <c r="J8">
-        <v>1.014255515800876</v>
+        <v>1.014261094276193</v>
       </c>
       <c r="K8">
-        <v>1.023402943711464</v>
+        <v>1.023407566688385</v>
       </c>
       <c r="L8">
-        <v>0.994209245907571</v>
+        <v>0.9942128101764776</v>
       </c>
       <c r="M8">
-        <v>1.017570134887479</v>
+        <v>1.017574336101865</v>
+      </c>
+      <c r="N8">
+        <v>1.011649894287513</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762179870486093</v>
+        <v>0.9762331542893927</v>
       </c>
       <c r="D9">
-        <v>1.00039832131115</v>
+        <v>1.000410169312999</v>
       </c>
       <c r="E9">
-        <v>0.9705515229824084</v>
+        <v>0.9705586158252493</v>
       </c>
       <c r="F9">
-        <v>0.9919373662600491</v>
+        <v>0.9919481459075495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037568965097316</v>
+        <v>1.037575192094012</v>
       </c>
       <c r="J9">
-        <v>1.002639434388956</v>
+        <v>1.002654028589833</v>
       </c>
       <c r="K9">
-        <v>1.013484939333815</v>
+        <v>1.013496595309526</v>
       </c>
       <c r="L9">
-        <v>0.9841411617648211</v>
+        <v>0.9841481303074631</v>
       </c>
       <c r="M9">
-        <v>1.005162622706109</v>
+        <v>1.005173223784957</v>
+      </c>
+      <c r="N9">
+        <v>1.003671735699887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.964611429606987</v>
+        <v>0.9646336586895755</v>
       </c>
       <c r="D10">
-        <v>0.991835460213713</v>
+        <v>0.9918526435530736</v>
       </c>
       <c r="E10">
-        <v>0.9619167499030272</v>
+        <v>0.9619264911804308</v>
       </c>
       <c r="F10">
-        <v>0.9815926765943531</v>
+        <v>0.9816083591419302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033663848941037</v>
+        <v>1.033672872035462</v>
       </c>
       <c r="J10">
-        <v>0.9943030346215088</v>
+        <v>0.9943242865576563</v>
       </c>
       <c r="K10">
-        <v>1.006353709444123</v>
+        <v>1.00637057584753</v>
       </c>
       <c r="L10">
-        <v>0.9770094240800962</v>
+        <v>0.9770189706801371</v>
       </c>
       <c r="M10">
-        <v>0.9963024292049714</v>
+        <v>0.9963178145513488</v>
+      </c>
+      <c r="N10">
+        <v>0.9979411907528464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593655750615868</v>
+        <v>0.9593910947978445</v>
       </c>
       <c r="D11">
-        <v>0.9879730377920852</v>
+        <v>0.9879926960689918</v>
       </c>
       <c r="E11">
-        <v>0.9580488013597955</v>
+        <v>0.958059786952574</v>
       </c>
       <c r="F11">
-        <v>0.9769356946393496</v>
+        <v>0.9769536650042392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03188263534021</v>
+        <v>1.031892953022318</v>
       </c>
       <c r="J11">
-        <v>0.990532253905275</v>
+        <v>0.9905565782660681</v>
       </c>
       <c r="K11">
-        <v>1.003125385907808</v>
+        <v>1.00314466153728</v>
       </c>
       <c r="L11">
-        <v>0.9738077267864359</v>
+        <v>0.9738184804928405</v>
       </c>
       <c r="M11">
-        <v>0.9923060837880184</v>
+        <v>0.9923236938823817</v>
+      </c>
+      <c r="N11">
+        <v>0.9953481381997583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9573810384140302</v>
+        <v>0.9574078202783701</v>
       </c>
       <c r="D12">
-        <v>0.9865132351583222</v>
+        <v>0.9865338407451394</v>
       </c>
       <c r="E12">
-        <v>0.9565911189654573</v>
+        <v>0.9566025833754527</v>
       </c>
       <c r="F12">
-        <v>0.9751769541191462</v>
+        <v>0.975195802447443</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031206484130092</v>
+        <v>1.031217296945617</v>
       </c>
       <c r="J12">
-        <v>0.9891054230803621</v>
+        <v>0.9891309208369077</v>
       </c>
       <c r="K12">
-        <v>1.001903463375621</v>
+        <v>1.001923659888324</v>
       </c>
       <c r="L12">
-        <v>0.9726000540492038</v>
+        <v>0.97261127157264</v>
       </c>
       <c r="M12">
-        <v>0.9907956938794009</v>
+        <v>0.9908141564563192</v>
+      </c>
+      <c r="N12">
+        <v>0.994366822430421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9578084077749992</v>
+        <v>0.9578349170191066</v>
       </c>
       <c r="D13">
-        <v>0.9868275376563892</v>
+        <v>0.9868479387163621</v>
       </c>
       <c r="E13">
-        <v>0.9569047720661569</v>
+        <v>0.9569161329807602</v>
       </c>
       <c r="F13">
-        <v>0.9755555578651979</v>
+        <v>0.9755742165319253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031352195103376</v>
+        <v>1.031362901035804</v>
       </c>
       <c r="J13">
-        <v>0.9894127031847584</v>
+        <v>0.9894379477230121</v>
       </c>
       <c r="K13">
-        <v>1.002166629838043</v>
+        <v>1.002186627588737</v>
       </c>
       <c r="L13">
-        <v>0.9728599608285462</v>
+        <v>0.9728710781305486</v>
       </c>
       <c r="M13">
-        <v>0.9911208867369987</v>
+        <v>0.9911391652163849</v>
+      </c>
+      <c r="N13">
+        <v>0.994578162512207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592022850290365</v>
+        <v>0.9592279082496098</v>
       </c>
       <c r="D14">
-        <v>0.9878528943699818</v>
+        <v>0.9878726303596946</v>
       </c>
       <c r="E14">
-        <v>0.957928746013638</v>
+        <v>0.9579397708339205</v>
       </c>
       <c r="F14">
-        <v>0.9767909206312502</v>
+        <v>0.976808962972581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031827046855321</v>
+        <v>1.031837405163684</v>
       </c>
       <c r="J14">
-        <v>0.9904148583874637</v>
+        <v>0.9904392790620538</v>
       </c>
       <c r="K14">
-        <v>1.003024856511357</v>
+        <v>1.003044207712115</v>
       </c>
       <c r="L14">
-        <v>0.9737082842872274</v>
+        <v>0.973719076006343</v>
       </c>
       <c r="M14">
-        <v>0.992181776383061</v>
+        <v>0.9921994563914218</v>
+      </c>
+      <c r="N14">
+        <v>0.9952674008375598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600562360844954</v>
+        <v>0.9600813188341047</v>
       </c>
       <c r="D15">
-        <v>0.9884812605293155</v>
+        <v>0.9885005905652602</v>
       </c>
       <c r="E15">
-        <v>0.9585568237242335</v>
+        <v>0.9585676437329583</v>
       </c>
       <c r="F15">
-        <v>0.9775481635355503</v>
+        <v>0.9775658299821719</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032117662593848</v>
+        <v>1.032127808664383</v>
       </c>
       <c r="J15">
-        <v>0.9910287844330141</v>
+        <v>0.9910527018797136</v>
       </c>
       <c r="K15">
-        <v>1.0035505662471</v>
+        <v>1.003569522628669</v>
       </c>
       <c r="L15">
-        <v>0.9742284806028871</v>
+        <v>0.9742390738251373</v>
       </c>
       <c r="M15">
-        <v>0.9928319219095297</v>
+        <v>0.9928492367418728</v>
+      </c>
+      <c r="N15">
+        <v>0.9956896160763093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.964954700338994</v>
+        <v>0.9649767163331948</v>
       </c>
       <c r="D16">
-        <v>0.9920883815931796</v>
+        <v>0.9921054044159356</v>
       </c>
       <c r="E16">
-        <v>0.9621706042760044</v>
+        <v>0.9621802651880281</v>
       </c>
       <c r="F16">
-        <v>0.9818978167310056</v>
+        <v>0.9819133511943133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033780080292773</v>
+        <v>1.033789019372794</v>
       </c>
       <c r="J16">
-        <v>0.9945497303230398</v>
+        <v>0.9945707826475019</v>
       </c>
       <c r="K16">
-        <v>1.00656486464167</v>
+        <v>1.006581574622425</v>
       </c>
       <c r="L16">
-        <v>0.9772194045714176</v>
+        <v>0.977228873119999</v>
       </c>
       <c r="M16">
-        <v>0.9965641241667325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9965793653439492</v>
+      </c>
+      <c r="N16">
+        <v>0.9981108174124353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679664863952392</v>
+        <v>0.9679866442099367</v>
       </c>
       <c r="D17">
-        <v>0.994308360605936</v>
+        <v>0.9943239824148689</v>
       </c>
       <c r="E17">
-        <v>0.9644018320549925</v>
+        <v>0.9644107933001039</v>
       </c>
       <c r="F17">
-        <v>0.9845771722598341</v>
+        <v>0.9845914157482833</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034798054312068</v>
+        <v>1.034806259826226</v>
       </c>
       <c r="J17">
-        <v>0.9967138672511796</v>
+        <v>0.9967331755349194</v>
       </c>
       <c r="K17">
-        <v>1.008416926305624</v>
+        <v>1.008432270128216</v>
       </c>
       <c r="L17">
-        <v>0.9790642072845817</v>
+        <v>0.9790729958465244</v>
       </c>
       <c r="M17">
-        <v>0.9988611336136447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9988751170783136</v>
+      </c>
+      <c r="N17">
+        <v>0.9995987590228032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697021848715766</v>
+        <v>0.9697212809386615</v>
       </c>
       <c r="D18">
-        <v>0.9955884545065953</v>
+        <v>0.9956032747729026</v>
       </c>
       <c r="E18">
-        <v>0.9656909339578934</v>
+        <v>0.9656994963599135</v>
       </c>
       <c r="F18">
-        <v>0.986123017203795</v>
+        <v>0.9861365233347518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035383182297267</v>
+        <v>1.035390967900301</v>
       </c>
       <c r="J18">
-        <v>0.9979607780072351</v>
+        <v>0.9979790870360336</v>
       </c>
       <c r="K18">
-        <v>1.009483773959006</v>
+        <v>1.009498335468716</v>
       </c>
       <c r="L18">
-        <v>0.9801293867355099</v>
+        <v>0.9801377872964125</v>
       </c>
       <c r="M18">
-        <v>1.00018566330071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.000198927702929</v>
+      </c>
+      <c r="N18">
+        <v>1.000455973773516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9702905299813293</v>
+        <v>0.9703092676334434</v>
       </c>
       <c r="D19">
-        <v>0.9960224800910626</v>
+        <v>0.9960370296149261</v>
       </c>
       <c r="E19">
-        <v>0.9661284369758398</v>
+        <v>0.96613686489873</v>
       </c>
       <c r="F19">
-        <v>0.9866472945139543</v>
+        <v>0.9866605517844813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035581258051367</v>
+        <v>1.035588901780238</v>
       </c>
       <c r="J19">
-        <v>0.9983833881957898</v>
+        <v>0.9984013594576663</v>
       </c>
       <c r="K19">
-        <v>1.009845311538017</v>
+        <v>1.009859608682915</v>
       </c>
       <c r="L19">
-        <v>0.9804907815630007</v>
+        <v>0.9804990512381806</v>
       </c>
       <c r="M19">
-        <v>1.000634758292118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.000647779892539</v>
+      </c>
+      <c r="N19">
+        <v>1.000746489713748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676455449921227</v>
+        <v>0.9676658998537934</v>
       </c>
       <c r="D20">
-        <v>0.9940717198541444</v>
+        <v>0.9940874903384397</v>
       </c>
       <c r="E20">
-        <v>0.9641637291430606</v>
+        <v>0.9641727644847048</v>
       </c>
       <c r="F20">
-        <v>0.9842914742225712</v>
+        <v>0.9843058545792176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034689735540332</v>
+        <v>1.034698018924061</v>
       </c>
       <c r="J20">
-        <v>0.9964832817671576</v>
+        <v>0.9965027752819173</v>
       </c>
       <c r="K20">
-        <v>1.008219618101331</v>
+        <v>1.008235106975302</v>
       </c>
       <c r="L20">
-        <v>0.9788674102961653</v>
+        <v>0.9788762709101495</v>
       </c>
       <c r="M20">
-        <v>0.9986162798501284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9986303967306632</v>
+      </c>
+      <c r="N20">
+        <v>0.9994402306080234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587928417222651</v>
+        <v>0.9588187247119939</v>
       </c>
       <c r="D21">
-        <v>0.9875516623190093</v>
+        <v>0.9875715933533001</v>
       </c>
       <c r="E21">
-        <v>0.9576278030992631</v>
+        <v>0.9576389264145909</v>
       </c>
       <c r="F21">
-        <v>0.9764279549788261</v>
+        <v>0.9764461780049224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031687624260179</v>
+        <v>1.031698084526607</v>
       </c>
       <c r="J21">
-        <v>0.990120488999206</v>
+        <v>0.9901451513607938</v>
       </c>
       <c r="K21">
-        <v>1.002772773440805</v>
+        <v>1.002792314290508</v>
       </c>
       <c r="L21">
-        <v>0.9734589942551333</v>
+        <v>0.97346988140798</v>
       </c>
       <c r="M21">
-        <v>0.9918701045690343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9918879600638499</v>
+      </c>
+      <c r="N21">
+        <v>0.9950649498370113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530168360702556</v>
+        <v>0.9530464283172819</v>
       </c>
       <c r="D22">
-        <v>0.9833057596208157</v>
+        <v>0.9833284706319856</v>
       </c>
       <c r="E22">
-        <v>0.9533962658059247</v>
+        <v>0.9534087993198573</v>
       </c>
       <c r="F22">
-        <v>0.9713151612379294</v>
+        <v>0.9713359653894512</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029715451069679</v>
+        <v>1.029727363602343</v>
       </c>
       <c r="J22">
-        <v>0.9859672220741623</v>
+        <v>0.9859953226488564</v>
       </c>
       <c r="K22">
-        <v>0.9992153490465706</v>
+        <v>0.9992375897586609</v>
       </c>
       <c r="L22">
-        <v>0.9699511538412096</v>
+        <v>0.9699634056383093</v>
       </c>
       <c r="M22">
-        <v>0.9874771229921426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9874974821151171</v>
+      </c>
+      <c r="N22">
+        <v>0.9922082841637228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9560997787517544</v>
+        <v>0.9561273806714328</v>
       </c>
       <c r="D23">
-        <v>0.9855711701306947</v>
+        <v>0.9855923906357547</v>
       </c>
       <c r="E23">
-        <v>0.9556516313816501</v>
+        <v>0.9556634073415712</v>
       </c>
       <c r="F23">
-        <v>0.9740423572189627</v>
+        <v>0.9740617761270139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030769312566901</v>
+        <v>1.030780446673135</v>
       </c>
       <c r="J23">
-        <v>0.9881841553748408</v>
+        <v>0.9882104140425905</v>
       </c>
       <c r="K23">
-        <v>1.001114406676483</v>
+        <v>1.001135200579539</v>
       </c>
       <c r="L23">
-        <v>0.9718213941348979</v>
+        <v>0.9718329132478809</v>
       </c>
       <c r="M23">
-        <v>0.989820991302314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9898400075229602</v>
+      </c>
+      <c r="N23">
+        <v>0.9937331789151405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677906293557589</v>
+        <v>0.9678108951124563</v>
       </c>
       <c r="D24">
-        <v>0.9941786931654282</v>
+        <v>0.9941943964216203</v>
       </c>
       <c r="E24">
-        <v>0.9642713556046641</v>
+        <v>0.9642803574368023</v>
       </c>
       <c r="F24">
-        <v>0.9844206211687812</v>
+        <v>0.9844349396324811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034738706756227</v>
+        <v>1.034746954929556</v>
       </c>
       <c r="J24">
-        <v>0.9965875208451302</v>
+        <v>0.9966069306065669</v>
       </c>
       <c r="K24">
-        <v>1.008308814559836</v>
+        <v>1.008324237846608</v>
       </c>
       <c r="L24">
-        <v>0.978956367853571</v>
+        <v>0.9789651958838229</v>
       </c>
       <c r="M24">
-        <v>0.9987269657920331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9987410223429779</v>
+      </c>
+      <c r="N24">
+        <v>0.9995118956673942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9805400365233052</v>
+        <v>0.9805526449147014</v>
       </c>
       <c r="D25">
-        <v>1.00359235890478</v>
+        <v>1.00360226588525</v>
       </c>
       <c r="E25">
-        <v>0.9737943956631754</v>
+        <v>0.9738005370530695</v>
       </c>
       <c r="F25">
-        <v>0.9958039381315253</v>
+        <v>0.9958129438200012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03900862365459</v>
+        <v>1.039013831472225</v>
       </c>
       <c r="J25">
-        <v>1.005740535026541</v>
+        <v>1.00575269516185</v>
       </c>
       <c r="K25">
-        <v>1.01613516292265</v>
+        <v>1.016144917514045</v>
       </c>
       <c r="L25">
-        <v>0.9868136147971491</v>
+        <v>0.9868196541294837</v>
       </c>
       <c r="M25">
-        <v>1.008467743675725</v>
+        <v>1.008476608052879</v>
+      </c>
+      <c r="N25">
+        <v>1.005802535460351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901481637037801</v>
+        <v>1.014314882609819</v>
       </c>
       <c r="D2">
-        <v>1.010702181377786</v>
+        <v>1.032418498161596</v>
       </c>
       <c r="E2">
-        <v>0.9810569308121245</v>
+        <v>1.026796456347935</v>
       </c>
       <c r="F2">
-        <v>1.004426469737505</v>
+        <v>1.036236815762448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042176377240575</v>
+        <v>1.047817357903226</v>
       </c>
       <c r="J2">
-        <v>1.012627588107228</v>
+        <v>1.036075708293452</v>
       </c>
       <c r="K2">
-        <v>1.022014404454612</v>
+        <v>1.043443937268924</v>
       </c>
       <c r="L2">
-        <v>0.9927866370010917</v>
+        <v>1.037894682085021</v>
       </c>
       <c r="M2">
-        <v>1.015824479354146</v>
+        <v>1.047213383079287</v>
       </c>
       <c r="N2">
-        <v>1.010527715050811</v>
+        <v>1.037547054638806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968247141537314</v>
+        <v>1.020715680103809</v>
       </c>
       <c r="D3">
-        <v>1.015648313541531</v>
+        <v>1.037388798765696</v>
       </c>
       <c r="E3">
-        <v>0.986151607938536</v>
+        <v>1.032097381896524</v>
       </c>
       <c r="F3">
-        <v>1.010442803378875</v>
+        <v>1.041842338595979</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044345881222459</v>
+        <v>1.049659357606089</v>
       </c>
       <c r="J3">
-        <v>1.017402316544944</v>
+        <v>1.04065711472877</v>
       </c>
       <c r="K3">
-        <v>1.026084811150848</v>
+        <v>1.0475646299204</v>
       </c>
       <c r="L3">
-        <v>0.9969648027235362</v>
+        <v>1.042335404013594</v>
       </c>
       <c r="M3">
-        <v>1.020943787750143</v>
+        <v>1.051966431486185</v>
       </c>
       <c r="N3">
-        <v>1.013807165417894</v>
+        <v>1.042134967196724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001021473373368</v>
+        <v>1.024749657792284</v>
       </c>
       <c r="D4">
-        <v>1.018759357807414</v>
+        <v>1.040524387215013</v>
       </c>
       <c r="E4">
-        <v>0.9893738653050268</v>
+        <v>1.035450465888034</v>
       </c>
       <c r="F4">
-        <v>1.014234379282695</v>
+        <v>1.045384301613743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045694740703947</v>
+        <v>1.050809162020133</v>
       </c>
       <c r="J4">
-        <v>1.020399085801105</v>
+        <v>1.043540775333301</v>
       </c>
       <c r="K4">
-        <v>1.028636525663881</v>
+        <v>1.050157134648031</v>
       </c>
       <c r="L4">
-        <v>0.999602253162036</v>
+        <v>1.045139063735233</v>
       </c>
       <c r="M4">
-        <v>1.024163990607409</v>
+        <v>1.054964177806833</v>
       </c>
       <c r="N4">
-        <v>1.015864329750651</v>
+        <v>1.045022722930075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002757746350243</v>
+        <v>1.026420974883843</v>
       </c>
       <c r="D5">
-        <v>1.020046821185479</v>
+        <v>1.041824159709571</v>
       </c>
       <c r="E5">
-        <v>0.9907115562368869</v>
+        <v>1.036842524597162</v>
       </c>
       <c r="F5">
-        <v>1.015805262714402</v>
+        <v>1.046853885847969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046249148704285</v>
+        <v>1.051282823253979</v>
       </c>
       <c r="J5">
-        <v>1.02163774779039</v>
+        <v>1.044734564855805</v>
       </c>
       <c r="K5">
-        <v>1.029690482948718</v>
+        <v>1.051230087892378</v>
       </c>
       <c r="L5">
-        <v>1.000695941489977</v>
+        <v>1.04630175518611</v>
       </c>
       <c r="M5">
-        <v>1.025496688886272</v>
+        <v>1.056206626357383</v>
       </c>
       <c r="N5">
-        <v>1.016714342815994</v>
+        <v>1.04621820777063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003047671191656</v>
+        <v>1.026700189986711</v>
       </c>
       <c r="D6">
-        <v>1.020261821984581</v>
+        <v>1.04204134019676</v>
       </c>
       <c r="E6">
-        <v>0.9909351903592937</v>
+        <v>1.037075250250246</v>
       </c>
       <c r="F6">
-        <v>1.01606769932334</v>
+        <v>1.047099520605464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046341508236822</v>
+        <v>1.051361793299332</v>
       </c>
       <c r="J6">
-        <v>1.021844511281261</v>
+        <v>1.044933945961815</v>
       </c>
       <c r="K6">
-        <v>1.029866369734859</v>
+        <v>1.05140926909771</v>
       </c>
       <c r="L6">
-        <v>1.000878711602074</v>
+        <v>1.046496060464187</v>
       </c>
       <c r="M6">
-        <v>1.025719247469423</v>
+        <v>1.056414217719066</v>
       </c>
       <c r="N6">
-        <v>1.016856214381557</v>
+        <v>1.046417872020679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001044781833568</v>
+        <v>1.024772084978361</v>
       </c>
       <c r="D7">
-        <v>1.018776639934504</v>
+        <v>1.040541826169362</v>
       </c>
       <c r="E7">
-        <v>0.9893918051005768</v>
+        <v>1.035469134631475</v>
       </c>
       <c r="F7">
-        <v>1.014255458756203</v>
+        <v>1.045404013530044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045702197807922</v>
+        <v>1.050815528825002</v>
       </c>
       <c r="J7">
-        <v>1.020415718772026</v>
+        <v>1.043556798428462</v>
       </c>
       <c r="K7">
-        <v>1.028650681391176</v>
+        <v>1.050171537097596</v>
       </c>
       <c r="L7">
-        <v>0.9996169254680951</v>
+        <v>1.045154661472887</v>
       </c>
       <c r="M7">
-        <v>1.024181879691459</v>
+        <v>1.054980848378326</v>
       </c>
       <c r="N7">
-        <v>1.015875744996598</v>
+        <v>1.045038768779868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924310306296409</v>
+        <v>1.016501145778967</v>
       </c>
       <c r="D8">
-        <v>1.012392888511303</v>
+        <v>1.034115438741208</v>
       </c>
       <c r="E8">
-        <v>0.9827946247221567</v>
+        <v>1.028604395234999</v>
       </c>
       <c r="F8">
-        <v>1.006481450213004</v>
+        <v>1.03814945079621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042921265701096</v>
+        <v>1.048448810977764</v>
       </c>
       <c r="J8">
-        <v>1.014261094276193</v>
+        <v>1.037641277759871</v>
       </c>
       <c r="K8">
-        <v>1.023407566688385</v>
+        <v>1.044852303476112</v>
       </c>
       <c r="L8">
-        <v>0.9942128101764776</v>
+        <v>1.039410355365599</v>
       </c>
       <c r="M8">
-        <v>1.017574336101865</v>
+        <v>1.048836317438943</v>
       </c>
       <c r="N8">
-        <v>1.011649894287513</v>
+        <v>1.039114847393409</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762331542893927</v>
+        <v>1.001041062420641</v>
       </c>
       <c r="D9">
-        <v>1.000410169312999</v>
+        <v>1.022133142910245</v>
       </c>
       <c r="E9">
-        <v>0.9705586158252493</v>
+        <v>1.015877051139531</v>
       </c>
       <c r="F9">
-        <v>0.9919481459075495</v>
+        <v>1.024667945191708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037575192094012</v>
+        <v>1.043938371763482</v>
       </c>
       <c r="J9">
-        <v>1.002654028589833</v>
+        <v>1.026557111575312</v>
       </c>
       <c r="K9">
-        <v>1.013496595309526</v>
+        <v>1.034877049079858</v>
       </c>
       <c r="L9">
-        <v>0.9841481303074631</v>
+        <v>1.02871768118962</v>
       </c>
       <c r="M9">
-        <v>1.005173223784957</v>
+        <v>1.037373090134296</v>
       </c>
       <c r="N9">
-        <v>1.003671735699887</v>
+        <v>1.028014940421495</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9646336586895755</v>
+        <v>0.9900460482143354</v>
       </c>
       <c r="D10">
-        <v>0.9918526435530736</v>
+        <v>1.013638848649377</v>
       </c>
       <c r="E10">
-        <v>0.9619264911804308</v>
+        <v>1.006904797710849</v>
       </c>
       <c r="F10">
-        <v>0.9816083591419302</v>
+        <v>1.015140995115927</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033672872035462</v>
+        <v>1.040675782586739</v>
       </c>
       <c r="J10">
-        <v>0.9943242865576563</v>
+        <v>1.018660237247645</v>
       </c>
       <c r="K10">
-        <v>1.00637057584753</v>
+        <v>1.027766139865871</v>
       </c>
       <c r="L10">
-        <v>0.9770189706801371</v>
+        <v>1.021150493066149</v>
       </c>
       <c r="M10">
-        <v>0.9963178145513488</v>
+        <v>1.029242151594867</v>
       </c>
       <c r="N10">
-        <v>0.9979411907528464</v>
+        <v>1.020106851626499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593910947978445</v>
+        <v>0.9850982183789954</v>
       </c>
       <c r="D11">
-        <v>0.9879926960689918</v>
+        <v>1.009824602621883</v>
       </c>
       <c r="E11">
-        <v>0.958059786952574</v>
+        <v>1.002888162675706</v>
       </c>
       <c r="F11">
-        <v>0.9769536650042392</v>
+        <v>1.010870128807401</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031892953022318</v>
+        <v>1.039195561537422</v>
       </c>
       <c r="J11">
-        <v>0.9905565782660681</v>
+        <v>1.015104343234976</v>
       </c>
       <c r="K11">
-        <v>1.00314466153728</v>
+        <v>1.024563589566937</v>
       </c>
       <c r="L11">
-        <v>0.9738184804928405</v>
+        <v>1.017755817243067</v>
       </c>
       <c r="M11">
-        <v>0.9923236938823817</v>
+        <v>1.025589921182724</v>
       </c>
       <c r="N11">
-        <v>0.9953481381997583</v>
+        <v>1.016545907836465</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9574078202783701</v>
+        <v>0.9832300232368161</v>
       </c>
       <c r="D12">
-        <v>0.9865338407451394</v>
+        <v>1.008385826861856</v>
       </c>
       <c r="E12">
-        <v>0.9566025833754527</v>
+        <v>1.001374913006535</v>
       </c>
       <c r="F12">
-        <v>0.975195802447443</v>
+        <v>1.009260169032048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031217296945617</v>
+        <v>1.038634944623367</v>
       </c>
       <c r="J12">
-        <v>0.9891309208369077</v>
+        <v>1.013761475585174</v>
       </c>
       <c r="K12">
-        <v>1.001923659888324</v>
+        <v>1.02335411203695</v>
       </c>
       <c r="L12">
-        <v>0.97261127157264</v>
+        <v>1.016475819173925</v>
       </c>
       <c r="M12">
-        <v>0.9908141564563192</v>
+        <v>1.024212083505226</v>
       </c>
       <c r="N12">
-        <v>0.994366822430421</v>
+        <v>1.015201133160571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9578349170191066</v>
+        <v>0.983632170000856</v>
       </c>
       <c r="D13">
-        <v>0.9868479387163621</v>
+        <v>1.008695470926678</v>
       </c>
       <c r="E13">
-        <v>0.9569161329807602</v>
+        <v>1.001700499892179</v>
       </c>
       <c r="F13">
-        <v>0.9755742165319253</v>
+        <v>1.009606606515233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031362901035804</v>
+        <v>1.03875569872503</v>
       </c>
       <c r="J13">
-        <v>0.9894379477230121</v>
+        <v>1.014050549652918</v>
       </c>
       <c r="K13">
-        <v>1.002186627588737</v>
+        <v>1.023614473281967</v>
       </c>
       <c r="L13">
-        <v>0.9728710781305486</v>
+        <v>1.016751268685088</v>
       </c>
       <c r="M13">
-        <v>0.9911391652163849</v>
+        <v>1.024508620879921</v>
       </c>
       <c r="N13">
-        <v>0.994578162512207</v>
+        <v>1.015490617746648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592279082496098</v>
+        <v>0.9849444259269832</v>
       </c>
       <c r="D14">
-        <v>0.9878726303596946</v>
+        <v>1.009706131125307</v>
       </c>
       <c r="E14">
-        <v>0.9579397708339205</v>
+        <v>1.002763520707283</v>
       </c>
       <c r="F14">
-        <v>0.976808962972581</v>
+        <v>1.010737540244064</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031837405163684</v>
+        <v>1.039149445059853</v>
       </c>
       <c r="J14">
-        <v>0.9904392790620538</v>
+        <v>1.014993800701596</v>
       </c>
       <c r="K14">
-        <v>1.003044207712115</v>
+        <v>1.024464028238631</v>
       </c>
       <c r="L14">
-        <v>0.973719076006343</v>
+        <v>1.01765040929479</v>
       </c>
       <c r="M14">
-        <v>0.9921994563914218</v>
+        <v>1.025476471038386</v>
       </c>
       <c r="N14">
-        <v>0.9952674008375598</v>
+        <v>1.016435208320008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600813188341047</v>
+        <v>0.9857488563036199</v>
       </c>
       <c r="D15">
-        <v>0.9885005905652602</v>
+        <v>1.010325868949674</v>
       </c>
       <c r="E15">
-        <v>0.9585676437329583</v>
+        <v>1.003415613254133</v>
       </c>
       <c r="F15">
-        <v>0.9775658299821719</v>
+        <v>1.011431169081439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032127808664383</v>
+        <v>1.039390593689299</v>
       </c>
       <c r="J15">
-        <v>0.9910527018797136</v>
+        <v>1.015571997989071</v>
       </c>
       <c r="K15">
-        <v>1.003569522628669</v>
+        <v>1.024984786131142</v>
       </c>
       <c r="L15">
-        <v>0.9742390738251373</v>
+        <v>1.018201831150477</v>
       </c>
       <c r="M15">
-        <v>0.9928492367418728</v>
+        <v>1.026069934413225</v>
       </c>
       <c r="N15">
-        <v>0.9956896160763093</v>
+        <v>1.017014226713952</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9649767163331948</v>
+        <v>0.9903702930997613</v>
       </c>
       <c r="D16">
-        <v>0.9921054044159356</v>
+        <v>1.013888991120892</v>
       </c>
       <c r="E16">
-        <v>0.9621802651880281</v>
+        <v>1.007168469611124</v>
       </c>
       <c r="F16">
-        <v>0.9819133511943133</v>
+        <v>1.015421229765751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033789019372794</v>
+        <v>1.040772543405192</v>
       </c>
       <c r="J16">
-        <v>0.9945707826475019</v>
+        <v>1.018893226331518</v>
       </c>
       <c r="K16">
-        <v>1.006581574622425</v>
+        <v>1.027975968414127</v>
       </c>
       <c r="L16">
-        <v>0.977228873119999</v>
+        <v>1.021373189133767</v>
       </c>
       <c r="M16">
-        <v>0.9965793653439492</v>
+        <v>1.029481644800462</v>
       </c>
       <c r="N16">
-        <v>0.9981108174124353</v>
+        <v>1.020340171581595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679866442099367</v>
+        <v>0.9932176283618988</v>
       </c>
       <c r="D17">
-        <v>0.9943239824148689</v>
+        <v>1.016086552151447</v>
       </c>
       <c r="E17">
-        <v>0.9644107933001039</v>
+        <v>1.009486279281345</v>
       </c>
       <c r="F17">
-        <v>0.9845914157482833</v>
+        <v>1.017883959198201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034806259826226</v>
+        <v>1.041620890431103</v>
       </c>
       <c r="J17">
-        <v>0.9967331755349194</v>
+        <v>1.020938961486602</v>
       </c>
       <c r="K17">
-        <v>1.008432270128216</v>
+        <v>1.029818284735001</v>
       </c>
       <c r="L17">
-        <v>0.9790729958465244</v>
+        <v>1.023329999245895</v>
       </c>
       <c r="M17">
-        <v>0.9988751170783136</v>
+        <v>1.03158551932592</v>
       </c>
       <c r="N17">
-        <v>0.9995987590228032</v>
+        <v>1.022388811915249</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697212809386615</v>
+        <v>0.9948605617012427</v>
       </c>
       <c r="D18">
-        <v>0.9956032747729026</v>
+        <v>1.017355326759771</v>
       </c>
       <c r="E18">
-        <v>0.9656994963599135</v>
+        <v>1.010825632586047</v>
       </c>
       <c r="F18">
-        <v>0.9861365233347518</v>
+        <v>1.019306498980888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035390967900301</v>
+        <v>1.0421092520432</v>
       </c>
       <c r="J18">
-        <v>0.9979790870360336</v>
+        <v>1.022119146821941</v>
       </c>
       <c r="K18">
-        <v>1.009498335468716</v>
+        <v>1.030881061435647</v>
       </c>
       <c r="L18">
-        <v>0.9801377872964125</v>
+        <v>1.024460081760227</v>
       </c>
       <c r="M18">
-        <v>1.000198927702929</v>
+        <v>1.032800095726161</v>
       </c>
       <c r="N18">
-        <v>1.000455973773516</v>
+        <v>1.023570673249133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9703092676334434</v>
+        <v>0.9954177935982037</v>
       </c>
       <c r="D19">
-        <v>0.9960370296149261</v>
+        <v>1.01778578092111</v>
       </c>
       <c r="E19">
-        <v>0.96613686489873</v>
+        <v>1.011280226432318</v>
       </c>
       <c r="F19">
-        <v>0.9866605517844813</v>
+        <v>1.019789234285214</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035588901780238</v>
+        <v>1.042274693012178</v>
       </c>
       <c r="J19">
-        <v>0.9984013594576663</v>
+        <v>1.022519389040726</v>
       </c>
       <c r="K19">
-        <v>1.009859608682915</v>
+        <v>1.031241475683523</v>
       </c>
       <c r="L19">
-        <v>0.9804990512381806</v>
+        <v>1.024843533666527</v>
       </c>
       <c r="M19">
-        <v>1.000647779892539</v>
+        <v>1.033212144032254</v>
       </c>
       <c r="N19">
-        <v>1.000746489713748</v>
+        <v>1.023971483857777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676658998537934</v>
+        <v>0.9929140001485253</v>
       </c>
       <c r="D20">
-        <v>0.9940874903384397</v>
+        <v>1.015852132558213</v>
       </c>
       <c r="E20">
-        <v>0.9641727644847048</v>
+        <v>1.009238912567319</v>
       </c>
       <c r="F20">
-        <v>0.9843058545792176</v>
+        <v>1.017621184002474</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034698018924061</v>
+        <v>1.041530544039352</v>
       </c>
       <c r="J20">
-        <v>0.9965027752819173</v>
+        <v>1.020720834689846</v>
       </c>
       <c r="K20">
-        <v>1.008235106975302</v>
+        <v>1.029621853089028</v>
       </c>
       <c r="L20">
-        <v>0.9788762709101495</v>
+        <v>1.023121229183551</v>
       </c>
       <c r="M20">
-        <v>0.9986303967306632</v>
+        <v>1.031361104736908</v>
       </c>
       <c r="N20">
-        <v>0.9994402306080234</v>
+        <v>1.022170375353423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9588187247119939</v>
+        <v>0.9845588565507166</v>
       </c>
       <c r="D21">
-        <v>0.9875715933533001</v>
+        <v>1.009409137216269</v>
       </c>
       <c r="E21">
-        <v>0.9576389264145909</v>
+        <v>1.002451088363912</v>
       </c>
       <c r="F21">
-        <v>0.9764461780049224</v>
+        <v>1.010405173545849</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031698084526607</v>
+        <v>1.039033800239473</v>
       </c>
       <c r="J21">
-        <v>0.9901451513607938</v>
+        <v>1.014716658690316</v>
       </c>
       <c r="K21">
-        <v>1.002792314290508</v>
+        <v>1.024214416638404</v>
       </c>
       <c r="L21">
-        <v>0.97346988140798</v>
+        <v>1.017386172444132</v>
       </c>
       <c r="M21">
-        <v>0.9918879600638499</v>
+        <v>1.025192062214217</v>
       </c>
       <c r="N21">
-        <v>0.9950649498370113</v>
+        <v>1.016157672735284</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530464283172819</v>
+        <v>0.9791287352962402</v>
       </c>
       <c r="D22">
-        <v>0.9833284706319856</v>
+        <v>1.005230030687612</v>
       </c>
       <c r="E22">
-        <v>0.9534087993198573</v>
+        <v>0.9980592492477713</v>
       </c>
       <c r="F22">
-        <v>0.9713359653894512</v>
+        <v>1.005730843422103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029727363602343</v>
+        <v>1.037401153731342</v>
       </c>
       <c r="J22">
-        <v>0.9859953226488564</v>
+        <v>1.010813130286375</v>
       </c>
       <c r="K22">
-        <v>0.9992375897586609</v>
+        <v>1.020698586796786</v>
       </c>
       <c r="L22">
-        <v>0.9699634056383093</v>
+        <v>1.013669251079418</v>
       </c>
       <c r="M22">
-        <v>0.9874974821151171</v>
+        <v>1.021189619693517</v>
       </c>
       <c r="N22">
-        <v>0.9922082841637228</v>
+        <v>1.012248600873269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9561273806714328</v>
+        <v>0.9820249383271737</v>
       </c>
       <c r="D23">
-        <v>0.9855923906357547</v>
+        <v>1.007458157242717</v>
       </c>
       <c r="E23">
-        <v>0.9556634073415712</v>
+        <v>1.00039975663483</v>
       </c>
       <c r="F23">
-        <v>0.9740617761270139</v>
+        <v>1.00822242390476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030780446673135</v>
+        <v>1.038272845057426</v>
       </c>
       <c r="J23">
-        <v>0.9882104140425905</v>
+        <v>1.012895200995678</v>
       </c>
       <c r="K23">
-        <v>1.001135200579539</v>
+        <v>1.022573877692368</v>
       </c>
       <c r="L23">
-        <v>0.9718329132478809</v>
+        <v>1.015650670440651</v>
       </c>
       <c r="M23">
-        <v>0.9898400075229602</v>
+        <v>1.023323654409945</v>
       </c>
       <c r="N23">
-        <v>0.9937331789151405</v>
+        <v>1.014333628361796</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678108951124563</v>
+        <v>0.9930512517216135</v>
       </c>
       <c r="D24">
-        <v>0.9941943964216203</v>
+        <v>1.015958096821138</v>
       </c>
       <c r="E24">
-        <v>0.9642803574368023</v>
+        <v>1.00935072571935</v>
       </c>
       <c r="F24">
-        <v>0.9844349396324811</v>
+        <v>1.017739963721223</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034746954929556</v>
+        <v>1.041571387614588</v>
       </c>
       <c r="J24">
-        <v>0.9966069306065669</v>
+        <v>1.020819437037097</v>
       </c>
       <c r="K24">
-        <v>1.008324237846608</v>
+        <v>1.029710648506824</v>
       </c>
       <c r="L24">
-        <v>0.9789651958838229</v>
+        <v>1.023215598184805</v>
       </c>
       <c r="M24">
-        <v>0.9987410223429779</v>
+        <v>1.031462546790082</v>
       </c>
       <c r="N24">
-        <v>0.9995118956673942</v>
+        <v>1.022269117727316</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9805526449147014</v>
+        <v>1.005151835556508</v>
       </c>
       <c r="D25">
-        <v>1.00360226588525</v>
+        <v>1.025315040086373</v>
       </c>
       <c r="E25">
-        <v>0.9738005370530695</v>
+        <v>1.019248290919105</v>
       </c>
       <c r="F25">
-        <v>0.9958129438200012</v>
+        <v>1.028242771523373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039013831472225</v>
+        <v>1.045147349135056</v>
       </c>
       <c r="J25">
-        <v>1.00575269516185</v>
+        <v>1.029507055139986</v>
       </c>
       <c r="K25">
-        <v>1.016144917514045</v>
+        <v>1.037532683802977</v>
       </c>
       <c r="L25">
-        <v>0.9868196541294837</v>
+        <v>1.031554973528404</v>
       </c>
       <c r="M25">
-        <v>1.008476608052879</v>
+        <v>1.040417922669512</v>
       </c>
       <c r="N25">
-        <v>1.005802535460351</v>
+        <v>1.030969073244395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014314882609819</v>
+        <v>1.015738681548451</v>
       </c>
       <c r="D2">
-        <v>1.032418498161596</v>
+        <v>1.036543018008781</v>
       </c>
       <c r="E2">
-        <v>1.026796456347935</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.036236815762448</v>
+        <v>1.040796840213716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047817357903226</v>
+        <v>1.055431237534311</v>
       </c>
       <c r="J2">
-        <v>1.036075708293452</v>
+        <v>1.037458629826846</v>
       </c>
       <c r="K2">
-        <v>1.043443937268924</v>
+        <v>1.047515685630997</v>
       </c>
       <c r="L2">
-        <v>1.037894682085021</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.047213383079287</v>
+        <v>1.051715628659095</v>
       </c>
       <c r="N2">
-        <v>1.037547054638806</v>
+        <v>1.016400961201075</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020715680103809</v>
+        <v>1.019336530515524</v>
       </c>
       <c r="D3">
-        <v>1.037388798765696</v>
+        <v>1.039334060633609</v>
       </c>
       <c r="E3">
-        <v>1.032097381896524</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.041842338595979</v>
+        <v>1.044081530624764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049659357606089</v>
+        <v>1.056613221069574</v>
       </c>
       <c r="J3">
-        <v>1.04065711472877</v>
+        <v>1.039313591393257</v>
       </c>
       <c r="K3">
-        <v>1.0475646299204</v>
+        <v>1.049487225605684</v>
       </c>
       <c r="L3">
-        <v>1.042335404013594</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.051966431486185</v>
+        <v>1.054179815982224</v>
       </c>
       <c r="N3">
-        <v>1.042134967196724</v>
+        <v>1.01701410574616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024749657792284</v>
+        <v>1.021622261532645</v>
       </c>
       <c r="D4">
-        <v>1.040524387215013</v>
+        <v>1.04110917770683</v>
       </c>
       <c r="E4">
-        <v>1.035450465888034</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.045384301613743</v>
+        <v>1.046172339974392</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050809162020133</v>
+        <v>1.057354277620942</v>
       </c>
       <c r="J4">
-        <v>1.043540775333301</v>
+        <v>1.040488585808785</v>
       </c>
       <c r="K4">
-        <v>1.050157134648031</v>
+        <v>1.050735531105204</v>
       </c>
       <c r="L4">
-        <v>1.045139063735233</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.054964177806833</v>
+        <v>1.055743699813171</v>
       </c>
       <c r="N4">
-        <v>1.045022722930075</v>
+        <v>1.017402514755681</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026420974883843</v>
+        <v>1.022573336464625</v>
       </c>
       <c r="D5">
-        <v>1.041824159709571</v>
+        <v>1.041848225251885</v>
       </c>
       <c r="E5">
-        <v>1.036842524597162</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.046853885847969</v>
+        <v>1.047043248529361</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051282823253979</v>
+        <v>1.057660225180478</v>
       </c>
       <c r="J5">
-        <v>1.044734564855805</v>
+        <v>1.040976635448633</v>
       </c>
       <c r="K5">
-        <v>1.051230087892378</v>
+        <v>1.051253897453114</v>
       </c>
       <c r="L5">
-        <v>1.04630175518611</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.056206626357383</v>
+        <v>1.056393998793782</v>
       </c>
       <c r="N5">
-        <v>1.04621820777063</v>
+        <v>1.01756385028223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026700189986711</v>
+        <v>1.022732456792841</v>
       </c>
       <c r="D6">
-        <v>1.04204134019676</v>
+        <v>1.041971896783367</v>
       </c>
       <c r="E6">
-        <v>1.037075250250246</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.047099520605464</v>
+        <v>1.047189010961876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051361793299332</v>
+        <v>1.057711269910307</v>
       </c>
       <c r="J6">
-        <v>1.044933945961815</v>
+        <v>1.041058237957317</v>
       </c>
       <c r="K6">
-        <v>1.05140926909771</v>
+        <v>1.051340560899426</v>
       </c>
       <c r="L6">
-        <v>1.046496060464187</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.056414217719066</v>
+        <v>1.056502771944523</v>
       </c>
       <c r="N6">
-        <v>1.046417872020679</v>
+        <v>1.017590826032843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024772084978361</v>
+        <v>1.021635008162621</v>
       </c>
       <c r="D7">
-        <v>1.040541826169362</v>
+        <v>1.041119080999448</v>
       </c>
       <c r="E7">
-        <v>1.035469134631475</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.045404013530044</v>
+        <v>1.046184008515612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050815528825002</v>
+        <v>1.057358387556224</v>
       </c>
       <c r="J7">
-        <v>1.043556798428462</v>
+        <v>1.040495130228402</v>
       </c>
       <c r="K7">
-        <v>1.050171537097596</v>
+        <v>1.050742482589122</v>
       </c>
       <c r="L7">
-        <v>1.045154661472887</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.054980848378326</v>
+        <v>1.055752417043598</v>
       </c>
       <c r="N7">
-        <v>1.045038768779868</v>
+        <v>1.017404678140024</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016501145778967</v>
+        <v>1.016963528749173</v>
       </c>
       <c r="D8">
-        <v>1.034115438741208</v>
+        <v>1.037492767084039</v>
       </c>
       <c r="E8">
-        <v>1.028604395234999</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.03814945079621</v>
+        <v>1.04191421517674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048448810977764</v>
+        <v>1.055835675015746</v>
       </c>
       <c r="J8">
-        <v>1.037641277759871</v>
+        <v>1.038090843132792</v>
       </c>
       <c r="K8">
-        <v>1.044852303476112</v>
+        <v>1.048187739772411</v>
       </c>
       <c r="L8">
-        <v>1.039410355365599</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.048836317438943</v>
+        <v>1.052554855111353</v>
       </c>
       <c r="N8">
-        <v>1.039114847393409</v>
+        <v>1.016609929580999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001041062420641</v>
+        <v>1.008394299052245</v>
       </c>
       <c r="D9">
-        <v>1.022133142910245</v>
+        <v>1.030857848201851</v>
       </c>
       <c r="E9">
-        <v>1.015877051139531</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.024667945191708</v>
+        <v>1.034115091488298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043938371763482</v>
+        <v>1.052965870896704</v>
       </c>
       <c r="J9">
-        <v>1.026557111575312</v>
+        <v>1.033654075929327</v>
       </c>
       <c r="K9">
-        <v>1.034877049079858</v>
+        <v>1.043469359247307</v>
       </c>
       <c r="L9">
-        <v>1.02871768118962</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.037373090134296</v>
+        <v>1.046677903049017</v>
       </c>
       <c r="N9">
-        <v>1.028014940421495</v>
+        <v>1.015143555198193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9900460482143354</v>
+        <v>1.002434924193484</v>
       </c>
       <c r="D10">
-        <v>1.013638848649377</v>
+        <v>1.02625756753655</v>
       </c>
       <c r="E10">
-        <v>1.006904797710849</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.015140995115927</v>
+        <v>1.028715756311086</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040675782586739</v>
+        <v>1.050920485927544</v>
       </c>
       <c r="J10">
-        <v>1.018660237247645</v>
+        <v>1.030552267166897</v>
       </c>
       <c r="K10">
-        <v>1.027766139865871</v>
+        <v>1.040168383108256</v>
       </c>
       <c r="L10">
-        <v>1.021150493066149</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.029242151594867</v>
+        <v>1.042585198166466</v>
       </c>
       <c r="N10">
-        <v>1.020106851626499</v>
+        <v>1.014118593940386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9850982183789954</v>
+        <v>0.999791300856087</v>
       </c>
       <c r="D11">
-        <v>1.009824602621883</v>
+        <v>1.024220688240741</v>
       </c>
       <c r="E11">
-        <v>1.002888162675706</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.010870128807401</v>
+        <v>1.026326842758512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039195561537422</v>
+        <v>1.050001857235284</v>
       </c>
       <c r="J11">
-        <v>1.015104343234976</v>
+        <v>1.029172764534843</v>
       </c>
       <c r="K11">
-        <v>1.024563589566937</v>
+        <v>1.03869984994497</v>
       </c>
       <c r="L11">
-        <v>1.017755817243067</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.025589921182724</v>
+        <v>1.040768784311525</v>
       </c>
       <c r="N11">
-        <v>1.016545907836465</v>
+        <v>1.013662811043559</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9832300232368161</v>
+        <v>0.9987994272359092</v>
       </c>
       <c r="D12">
-        <v>1.008385826861856</v>
+        <v>1.02345708653848</v>
       </c>
       <c r="E12">
-        <v>1.001374913006535</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.009260169032048</v>
+        <v>1.025431518698622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038634944623367</v>
+        <v>1.0496555397978</v>
       </c>
       <c r="J12">
-        <v>1.013761475585174</v>
+        <v>1.028654684511648</v>
       </c>
       <c r="K12">
-        <v>1.02335411203695</v>
+        <v>1.038148273823766</v>
       </c>
       <c r="L12">
-        <v>1.016475819173925</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.024212083505226</v>
+        <v>1.040087188321795</v>
       </c>
       <c r="N12">
-        <v>1.015201133160571</v>
+        <v>1.013491649164189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.983632170000856</v>
+        <v>0.9990126431870571</v>
       </c>
       <c r="D13">
-        <v>1.008695470926678</v>
+        <v>1.023621203494216</v>
       </c>
       <c r="E13">
-        <v>1.001700499892179</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.009606606515233</v>
+        <v>1.025623934939733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03875569872503</v>
+        <v>1.049730059177011</v>
       </c>
       <c r="J13">
-        <v>1.014050549652918</v>
+        <v>1.028766074454954</v>
       </c>
       <c r="K13">
-        <v>1.023614473281967</v>
+        <v>1.038266868196633</v>
       </c>
       <c r="L13">
-        <v>1.016751268685088</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.024508620879921</v>
+        <v>1.040233709360636</v>
       </c>
       <c r="N13">
-        <v>1.015490617746648</v>
+        <v>1.013528449406617</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849444259269832</v>
+        <v>0.9997095170491356</v>
       </c>
       <c r="D14">
-        <v>1.009706131125307</v>
+        <v>1.024157713347282</v>
       </c>
       <c r="E14">
-        <v>1.002763520707283</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.010737540244064</v>
+        <v>1.026252999583289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039149445059853</v>
+        <v>1.049973335391775</v>
       </c>
       <c r="J14">
-        <v>1.014993800701596</v>
+        <v>1.02913005678379</v>
       </c>
       <c r="K14">
-        <v>1.024464028238631</v>
+        <v>1.038654382132085</v>
       </c>
       <c r="L14">
-        <v>1.01765040929479</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.025476471038386</v>
+        <v>1.040712585614688</v>
       </c>
       <c r="N14">
-        <v>1.016435208320008</v>
+        <v>1.013648701163708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9857488563036199</v>
+        <v>1.000137557256736</v>
       </c>
       <c r="D15">
-        <v>1.010325868949674</v>
+        <v>1.024487337207143</v>
       </c>
       <c r="E15">
-        <v>1.003415613254133</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.011431169081439</v>
+        <v>1.026639520479287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039390593689299</v>
+        <v>1.05012254589672</v>
       </c>
       <c r="J15">
-        <v>1.015571997989071</v>
+        <v>1.029353560549923</v>
       </c>
       <c r="K15">
-        <v>1.024984786131142</v>
+        <v>1.038892327806704</v>
       </c>
       <c r="L15">
-        <v>1.018201831150477</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.026069934413225</v>
+        <v>1.041006715139849</v>
       </c>
       <c r="N15">
-        <v>1.017014226713952</v>
+        <v>1.013722543237273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9903702930997613</v>
+        <v>1.002609006186673</v>
       </c>
       <c r="D16">
-        <v>1.013888991120892</v>
+        <v>1.026391779704446</v>
       </c>
       <c r="E16">
-        <v>1.007168469611124</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.015421229765751</v>
+        <v>1.028873200069625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040772543405192</v>
+        <v>1.050980745553815</v>
       </c>
       <c r="J16">
-        <v>1.018893226331518</v>
+        <v>1.030643036272417</v>
       </c>
       <c r="K16">
-        <v>1.027975968414127</v>
+        <v>1.040265001503379</v>
       </c>
       <c r="L16">
-        <v>1.021373189133767</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.029481644800462</v>
+        <v>1.042704794198198</v>
       </c>
       <c r="N16">
-        <v>1.020340171581595</v>
+        <v>1.014148585068224</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9932176283618988</v>
+        <v>1.004142075928442</v>
       </c>
       <c r="D17">
-        <v>1.016086552151447</v>
+        <v>1.027574175664356</v>
       </c>
       <c r="E17">
-        <v>1.009486279281345</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.017883959198201</v>
+        <v>1.03026046389817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041620890431103</v>
+        <v>1.051510146093847</v>
       </c>
       <c r="J17">
-        <v>1.020938961486602</v>
+        <v>1.031442005594954</v>
       </c>
       <c r="K17">
-        <v>1.029818284735001</v>
+        <v>1.041115406922198</v>
       </c>
       <c r="L17">
-        <v>1.023329999245895</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.03158551932592</v>
+        <v>1.043757935103472</v>
       </c>
       <c r="N17">
-        <v>1.022388811915249</v>
+        <v>1.014412580399917</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9948605617012427</v>
+        <v>1.005030223911896</v>
       </c>
       <c r="D18">
-        <v>1.017355326759771</v>
+        <v>1.028259530946716</v>
       </c>
       <c r="E18">
-        <v>1.010825632586047</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.019306498980888</v>
+        <v>1.031064736315402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0421092520432</v>
+        <v>1.051815766215199</v>
       </c>
       <c r="J18">
-        <v>1.022119146821941</v>
+        <v>1.031904533183729</v>
       </c>
       <c r="K18">
-        <v>1.030881061435647</v>
+        <v>1.041607667638079</v>
       </c>
       <c r="L18">
-        <v>1.024460081760227</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.032800095726161</v>
+        <v>1.044367963005745</v>
       </c>
       <c r="N18">
-        <v>1.023570673249133</v>
+        <v>1.014565414311347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9954177935982037</v>
+        <v>1.005332043037787</v>
       </c>
       <c r="D19">
-        <v>1.01778578092111</v>
+        <v>1.028492495064879</v>
       </c>
       <c r="E19">
-        <v>1.011280226432318</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.019789234285214</v>
+        <v>1.03133815151684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042274693012178</v>
+        <v>1.051919441332311</v>
       </c>
       <c r="J19">
-        <v>1.022519389040726</v>
+        <v>1.032061655843631</v>
       </c>
       <c r="K19">
-        <v>1.031241475683523</v>
+        <v>1.041774883163462</v>
       </c>
       <c r="L19">
-        <v>1.024843533666527</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.033212144032254</v>
+        <v>1.044575253068444</v>
       </c>
       <c r="N19">
-        <v>1.023971483857777</v>
+        <v>1.014617333586646</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9929140001485253</v>
+        <v>1.003978222435195</v>
       </c>
       <c r="D20">
-        <v>1.015852132558213</v>
+        <v>1.027447764085968</v>
       </c>
       <c r="E20">
-        <v>1.009238912567319</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.017621184002474</v>
+        <v>1.030112132188099</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041530544039352</v>
+        <v>1.051453675366411</v>
       </c>
       <c r="J20">
-        <v>1.020720834689846</v>
+        <v>1.031356646961898</v>
       </c>
       <c r="K20">
-        <v>1.029621853089028</v>
+        <v>1.041024557523621</v>
       </c>
       <c r="L20">
-        <v>1.023121229183551</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.031361104736908</v>
+        <v>1.04364538456602</v>
       </c>
       <c r="N20">
-        <v>1.022170375353423</v>
+        <v>1.014384375623302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9845588565507166</v>
+        <v>0.9995045822628442</v>
       </c>
       <c r="D21">
-        <v>1.009409137216269</v>
+        <v>1.023999920382415</v>
       </c>
       <c r="E21">
-        <v>1.002451088363912</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.010405173545849</v>
+        <v>1.026067978519942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039033800239473</v>
+        <v>1.049901838544354</v>
       </c>
       <c r="J21">
-        <v>1.014716658690316</v>
+        <v>1.029023031301401</v>
       </c>
       <c r="K21">
-        <v>1.024214416638404</v>
+        <v>1.038540439001295</v>
       </c>
       <c r="L21">
-        <v>1.017386172444132</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.025192062214217</v>
+        <v>1.040571761029164</v>
       </c>
       <c r="N21">
-        <v>1.016157672735284</v>
+        <v>1.013613342015599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9791287352962402</v>
+        <v>0.9966342395766232</v>
       </c>
       <c r="D22">
-        <v>1.005230030687612</v>
+        <v>1.021791401903234</v>
       </c>
       <c r="E22">
-        <v>0.9980592492477713</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.005730843422103</v>
+        <v>1.023478946495463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037401153731342</v>
+        <v>1.048896564604114</v>
       </c>
       <c r="J22">
-        <v>1.010813130286375</v>
+        <v>1.027522873285884</v>
       </c>
       <c r="K22">
-        <v>1.020698586796786</v>
+        <v>1.036943184329486</v>
       </c>
       <c r="L22">
-        <v>1.013669251079418</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.021189619693517</v>
+        <v>1.038599201753618</v>
       </c>
       <c r="N22">
-        <v>1.012248600873269</v>
+        <v>1.01311774383963</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9820249383271737</v>
+        <v>0.9981614686890946</v>
       </c>
       <c r="D23">
-        <v>1.007458157242717</v>
+        <v>1.022966131280402</v>
       </c>
       <c r="E23">
-        <v>1.00039975663483</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.00822242390476</v>
+        <v>1.024855941922677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038272845057426</v>
+        <v>1.04943233318497</v>
       </c>
       <c r="J23">
-        <v>1.012895200995678</v>
+        <v>1.028321326663519</v>
       </c>
       <c r="K23">
-        <v>1.022573877692368</v>
+        <v>1.037793346997884</v>
       </c>
       <c r="L23">
-        <v>1.015650670440651</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.023323654409945</v>
+        <v>1.03964877664723</v>
       </c>
       <c r="N23">
-        <v>1.014333628361796</v>
+        <v>1.0133815182305</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9930512517216135</v>
+        <v>1.004052279490228</v>
       </c>
       <c r="D24">
-        <v>1.015958096821138</v>
+        <v>1.027504897356896</v>
       </c>
       <c r="E24">
-        <v>1.00935072571935</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.017739963721223</v>
+        <v>1.030179172007893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041571387614588</v>
+        <v>1.051479201843993</v>
       </c>
       <c r="J24">
-        <v>1.020819437037097</v>
+        <v>1.031395227648455</v>
       </c>
       <c r="K24">
-        <v>1.029710648506824</v>
+        <v>1.04106562008059</v>
       </c>
       <c r="L24">
-        <v>1.023215598184805</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.031462546790082</v>
+        <v>1.043696254429391</v>
       </c>
       <c r="N24">
-        <v>1.022269117727316</v>
+        <v>1.014397123697268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005151835556508</v>
+        <v>1.010651603294855</v>
       </c>
       <c r="D25">
-        <v>1.025315040086373</v>
+        <v>1.032603387774278</v>
       </c>
       <c r="E25">
-        <v>1.019248290919105</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.028242771523373</v>
+        <v>1.036165451730327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045147349135056</v>
+        <v>1.053730566418423</v>
       </c>
       <c r="J25">
-        <v>1.029507055139986</v>
+        <v>1.03482573995175</v>
       </c>
       <c r="K25">
-        <v>1.037532683802977</v>
+        <v>1.044715815210807</v>
       </c>
       <c r="L25">
-        <v>1.031554973528404</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.040417922669512</v>
+        <v>1.048227137393509</v>
       </c>
       <c r="N25">
-        <v>1.030969073244395</v>
+        <v>1.015530765106887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015738681548451</v>
+        <v>1.034902331059937</v>
       </c>
       <c r="D2">
-        <v>1.036543018008781</v>
+        <v>1.045138032827721</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.040796840213716</v>
+        <v>1.053680773777689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055431237534311</v>
+        <v>1.042693233828063</v>
       </c>
       <c r="J2">
-        <v>1.037458629826846</v>
+        <v>1.040019034977926</v>
       </c>
       <c r="K2">
-        <v>1.047515685630997</v>
+        <v>1.047907115532507</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.051715628659095</v>
+        <v>1.056426072582815</v>
       </c>
       <c r="N2">
-        <v>1.016400961201075</v>
+        <v>1.017319576930855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019336530515524</v>
+        <v>1.035657988304486</v>
       </c>
       <c r="D3">
-        <v>1.039334060633609</v>
+        <v>1.045745396744404</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.044081530624764</v>
+        <v>1.054418524550014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056613221069574</v>
+        <v>1.042885083553713</v>
       </c>
       <c r="J3">
-        <v>1.039313591393257</v>
+        <v>1.040418997080361</v>
       </c>
       <c r="K3">
-        <v>1.049487225605684</v>
+        <v>1.048326390931843</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.054179815982224</v>
+        <v>1.056977109150555</v>
       </c>
       <c r="N3">
-        <v>1.01701410574616</v>
+        <v>1.017451708051472</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021622261532645</v>
+        <v>1.036147432989547</v>
       </c>
       <c r="D4">
-        <v>1.04110917770683</v>
+        <v>1.046138776229722</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.046172339974392</v>
+        <v>1.054896624278156</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057354277620942</v>
+        <v>1.04300813748756</v>
       </c>
       <c r="J4">
-        <v>1.040488585808785</v>
+        <v>1.040677584110099</v>
       </c>
       <c r="K4">
-        <v>1.050735531105204</v>
+        <v>1.048597368528881</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.055743699813171</v>
+        <v>1.057333722234377</v>
       </c>
       <c r="N4">
-        <v>1.017402514755681</v>
+        <v>1.017537127954807</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022573336464625</v>
+        <v>1.036353309499031</v>
       </c>
       <c r="D5">
-        <v>1.041848225251885</v>
+        <v>1.046304240650694</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.047043248529361</v>
+        <v>1.055097788977462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057660225180478</v>
+        <v>1.043059608543607</v>
       </c>
       <c r="J5">
-        <v>1.040976635448633</v>
+        <v>1.040786241275399</v>
       </c>
       <c r="K5">
-        <v>1.051253897453114</v>
+        <v>1.048711209066991</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.056393998793782</v>
+        <v>1.057483653930448</v>
       </c>
       <c r="N5">
-        <v>1.01756385028223</v>
+        <v>1.017573019416194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022732456792841</v>
+        <v>1.036387883698901</v>
       </c>
       <c r="D6">
-        <v>1.041971896783367</v>
+        <v>1.046332027940154</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.047189010961876</v>
+        <v>1.055131575414291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057711269910307</v>
+        <v>1.043068235439564</v>
       </c>
       <c r="J6">
-        <v>1.041058237957317</v>
+        <v>1.040804482156121</v>
       </c>
       <c r="K6">
-        <v>1.051340560899426</v>
+        <v>1.048730318752187</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.056502771944523</v>
+        <v>1.057508828748652</v>
       </c>
       <c r="N6">
-        <v>1.017590826032843</v>
+        <v>1.017579044619402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021635008162621</v>
+        <v>1.03615018347611</v>
       </c>
       <c r="D7">
-        <v>1.041119080999448</v>
+        <v>1.046140986831328</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.046184008515612</v>
+        <v>1.05489931157925</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057358387556224</v>
+        <v>1.0430088262723</v>
       </c>
       <c r="J7">
-        <v>1.040495130228402</v>
+        <v>1.040679036201653</v>
       </c>
       <c r="K7">
-        <v>1.050742482589122</v>
+        <v>1.048598889981772</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.055752417043598</v>
+        <v>1.057335725585834</v>
       </c>
       <c r="N7">
-        <v>1.017404678140024</v>
+        <v>1.017537607613751</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016963528749173</v>
+        <v>1.035157607630605</v>
       </c>
       <c r="D8">
-        <v>1.037492767084039</v>
+        <v>1.045343215609467</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.04191421517674</v>
+        <v>1.05392994856519</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055835675015746</v>
+        <v>1.042758294590441</v>
       </c>
       <c r="J8">
-        <v>1.038090843132792</v>
+        <v>1.040154247817227</v>
       </c>
       <c r="K8">
-        <v>1.048187739772411</v>
+        <v>1.048048877341657</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.052554855111353</v>
+        <v>1.056612285411805</v>
       </c>
       <c r="N8">
-        <v>1.016609929580999</v>
+        <v>1.017364247094521</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008394299052245</v>
+        <v>1.033412351864272</v>
       </c>
       <c r="D9">
-        <v>1.030857848201851</v>
+        <v>1.043940394541465</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.034115091488298</v>
+        <v>1.052227459553298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052965870896704</v>
+        <v>1.042308550941839</v>
       </c>
       <c r="J9">
-        <v>1.033654075929327</v>
+        <v>1.039227913097261</v>
       </c>
       <c r="K9">
-        <v>1.043469359247307</v>
+        <v>1.047077285457167</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.046677903049017</v>
+        <v>1.055337994356494</v>
       </c>
       <c r="N9">
-        <v>1.015143555198193</v>
+        <v>1.017058187909476</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002434924193484</v>
+        <v>1.032251508556775</v>
       </c>
       <c r="D10">
-        <v>1.02625756753655</v>
+        <v>1.043007282825508</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.028715756311086</v>
+        <v>1.051096395463353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050920485927544</v>
+        <v>1.042003212422738</v>
       </c>
       <c r="J10">
-        <v>1.030552267166897</v>
+        <v>1.038609364964743</v>
       </c>
       <c r="K10">
-        <v>1.040168383108256</v>
+        <v>1.046428030616491</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.042585198166466</v>
+        <v>1.054488909535334</v>
       </c>
       <c r="N10">
-        <v>1.014118593940386</v>
+        <v>1.016853788040943</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.999791300856087</v>
+        <v>1.03174950539222</v>
       </c>
       <c r="D11">
-        <v>1.024220688240741</v>
+        <v>1.042603758430172</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.026326842758512</v>
+        <v>1.050607591164511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050001857235284</v>
+        <v>1.041869702119529</v>
       </c>
       <c r="J11">
-        <v>1.029172764534843</v>
+        <v>1.038341308006237</v>
       </c>
       <c r="K11">
-        <v>1.03869984994497</v>
+        <v>1.046146552165097</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.040768784311525</v>
+        <v>1.05412137347366</v>
       </c>
       <c r="N11">
-        <v>1.013662811043559</v>
+        <v>1.016765200801441</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9987994272359092</v>
+        <v>1.031563138585627</v>
       </c>
       <c r="D12">
-        <v>1.02345708653848</v>
+        <v>1.042453951497176</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.025431518698622</v>
+        <v>1.050426173003965</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0496555397978</v>
+        <v>1.041819916537782</v>
       </c>
       <c r="J12">
-        <v>1.028654684511648</v>
+        <v>1.038241707756098</v>
       </c>
       <c r="K12">
-        <v>1.038148273823766</v>
+        <v>1.046041947898131</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.040087188321795</v>
+        <v>1.053984874521004</v>
       </c>
       <c r="N12">
-        <v>1.013491649164189</v>
+        <v>1.016732283879944</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9990126431870571</v>
+        <v>1.031603110363974</v>
       </c>
       <c r="D13">
-        <v>1.023621203494216</v>
+        <v>1.042486081940856</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.025623934939733</v>
+        <v>1.050465081194789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049730059177011</v>
+        <v>1.041830604474391</v>
       </c>
       <c r="J13">
-        <v>1.028766074454954</v>
+        <v>1.038263073772916</v>
       </c>
       <c r="K13">
-        <v>1.038266868196633</v>
+        <v>1.046064388136369</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.040233709360636</v>
+        <v>1.054014153062215</v>
       </c>
       <c r="N13">
-        <v>1.013528449406617</v>
+        <v>1.016739345192428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9997095170491356</v>
+        <v>1.031734098212571</v>
       </c>
       <c r="D14">
-        <v>1.024157713347282</v>
+        <v>1.042591373698947</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.026252999583289</v>
+        <v>1.050592592101464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049973335391775</v>
+        <v>1.04186559077829</v>
       </c>
       <c r="J14">
-        <v>1.02913005678379</v>
+        <v>1.038333075662832</v>
       </c>
       <c r="K14">
-        <v>1.038654382132085</v>
+        <v>1.046137906568258</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.040712585614688</v>
+        <v>1.054110090003117</v>
       </c>
       <c r="N14">
-        <v>1.013648701163708</v>
+        <v>1.016762480114008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000137557256736</v>
+        <v>1.03181481739403</v>
       </c>
       <c r="D15">
-        <v>1.024487337207143</v>
+        <v>1.042656258085948</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.026639520479287</v>
+        <v>1.050671175128163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05012254589672</v>
+        <v>1.041887121326869</v>
       </c>
       <c r="J15">
-        <v>1.029353560549923</v>
+        <v>1.03837620194202</v>
       </c>
       <c r="K15">
-        <v>1.038892327806704</v>
+        <v>1.04618319703452</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.041006715139849</v>
+        <v>1.054169202662717</v>
       </c>
       <c r="N15">
-        <v>1.013722543237273</v>
+        <v>1.016776732769102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002609006186673</v>
+        <v>1.032284838704569</v>
       </c>
       <c r="D16">
-        <v>1.026391779704446</v>
+        <v>1.043034074519072</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.028873200069625</v>
+        <v>1.051128856081046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050980745553815</v>
+        <v>1.04201204581895</v>
       </c>
       <c r="J16">
-        <v>1.030643036272417</v>
+        <v>1.0386271504677</v>
       </c>
       <c r="K16">
-        <v>1.040265001503379</v>
+        <v>1.046446704232575</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.042704794198198</v>
+        <v>1.054513304442898</v>
       </c>
       <c r="N16">
-        <v>1.014148585068224</v>
+        <v>1.016859665621872</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004142075928442</v>
+        <v>1.032579845938194</v>
       </c>
       <c r="D17">
-        <v>1.027574175664356</v>
+        <v>1.043271209186462</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.03026046389817</v>
+        <v>1.051416204199178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051510146093847</v>
+        <v>1.042090061125424</v>
       </c>
       <c r="J17">
-        <v>1.031442005594954</v>
+        <v>1.03878450547082</v>
       </c>
       <c r="K17">
-        <v>1.041115406922198</v>
+        <v>1.046611903519754</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.043757935103472</v>
+        <v>1.054729184662426</v>
       </c>
       <c r="N17">
-        <v>1.014412580399917</v>
+        <v>1.016911665912389</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005030223911896</v>
+        <v>1.03275198121943</v>
       </c>
       <c r="D18">
-        <v>1.028259530946716</v>
+        <v>1.043409575781095</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.031064736315402</v>
+        <v>1.051583901386344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051815766215199</v>
+        <v>1.042135440959381</v>
       </c>
       <c r="J18">
-        <v>1.031904533183729</v>
+        <v>1.038876266518352</v>
       </c>
       <c r="K18">
-        <v>1.041607667638079</v>
+        <v>1.046708227907452</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.044367963005745</v>
+        <v>1.054855115716164</v>
       </c>
       <c r="N18">
-        <v>1.014565414311347</v>
+        <v>1.01694198898063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005332043037787</v>
+        <v>1.032810685453669</v>
       </c>
       <c r="D19">
-        <v>1.028492495064879</v>
+        <v>1.043456763626491</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.03133815151684</v>
+        <v>1.05164109731272</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051919441332311</v>
+        <v>1.042150893050751</v>
       </c>
       <c r="J19">
-        <v>1.032061655843631</v>
+        <v>1.038907550983386</v>
       </c>
       <c r="K19">
-        <v>1.041774883163462</v>
+        <v>1.046741066297075</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.044575253068444</v>
+        <v>1.054898056893868</v>
       </c>
       <c r="N19">
-        <v>1.014617333586646</v>
+        <v>1.016952327022774</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003978222435195</v>
+        <v>1.032548187969961</v>
       </c>
       <c r="D20">
-        <v>1.027447764085968</v>
+        <v>1.043245761699346</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.030112132188099</v>
+        <v>1.051385364944873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051453675366411</v>
+        <v>1.042081703762214</v>
       </c>
       <c r="J20">
-        <v>1.031356646961898</v>
+        <v>1.038767624978712</v>
       </c>
       <c r="K20">
-        <v>1.041024557523621</v>
+        <v>1.046594182660504</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.04364538456602</v>
+        <v>1.054706021527211</v>
       </c>
       <c r="N20">
-        <v>1.014384375623302</v>
+        <v>1.016906087579068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9995045822628442</v>
+        <v>1.031695522793291</v>
       </c>
       <c r="D21">
-        <v>1.023999920382415</v>
+        <v>1.042560365676243</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.026067978519942</v>
+        <v>1.050555039282821</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049901838544354</v>
+        <v>1.041855293529412</v>
       </c>
       <c r="J21">
-        <v>1.029023031301401</v>
+        <v>1.038312462722657</v>
       </c>
       <c r="K21">
-        <v>1.038540439001295</v>
+        <v>1.04611625860852</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.040571761029164</v>
+        <v>1.05408183839034</v>
       </c>
       <c r="N21">
-        <v>1.013613342015599</v>
+        <v>1.016755667774901</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9966342395766232</v>
+        <v>1.031159995098409</v>
       </c>
       <c r="D22">
-        <v>1.021791401903234</v>
+        <v>1.042129893802619</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.023478946495463</v>
+        <v>1.05003382360636</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048896564604114</v>
+        <v>1.0417118189714</v>
       </c>
       <c r="J22">
-        <v>1.027522873285884</v>
+        <v>1.038026099886778</v>
       </c>
       <c r="K22">
-        <v>1.036943184329486</v>
+        <v>1.045815476541974</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.038599201753618</v>
+        <v>1.053689508039782</v>
       </c>
       <c r="N22">
-        <v>1.01311774383963</v>
+        <v>1.016661025542497</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9981614686890946</v>
+        <v>1.031443833152843</v>
       </c>
       <c r="D23">
-        <v>1.022966131280402</v>
+        <v>1.042358050457186</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.024855941922677</v>
+        <v>1.050310049254104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04943233318497</v>
+        <v>1.041787983548128</v>
       </c>
       <c r="J23">
-        <v>1.028321326663519</v>
+        <v>1.03817792326875</v>
       </c>
       <c r="K23">
-        <v>1.037793346997884</v>
+        <v>1.045974954018165</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.03964877664723</v>
+        <v>1.053897477967012</v>
       </c>
       <c r="N23">
-        <v>1.0133815182305</v>
+        <v>1.016711203411091</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004052279490228</v>
+        <v>1.032562492650072</v>
       </c>
       <c r="D24">
-        <v>1.027504897356896</v>
+        <v>1.043257260169312</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.030179172007893</v>
+        <v>1.051399299592797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051479201843993</v>
+        <v>1.042085480481792</v>
       </c>
       <c r="J24">
-        <v>1.031395227648455</v>
+        <v>1.038775252612973</v>
       </c>
       <c r="K24">
-        <v>1.04106562008059</v>
+        <v>1.046602190057904</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.043696254429391</v>
+        <v>1.054716487914823</v>
       </c>
       <c r="N24">
-        <v>1.014397123697268</v>
+        <v>1.016908608212005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010651603294855</v>
+        <v>1.033863081616542</v>
       </c>
       <c r="D25">
-        <v>1.032603387774278</v>
+        <v>1.044302695368733</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.036165451730327</v>
+        <v>1.052666910703025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053730566418423</v>
+        <v>1.042425795490298</v>
       </c>
       <c r="J25">
-        <v>1.03482573995175</v>
+        <v>1.039467573297457</v>
       </c>
       <c r="K25">
-        <v>1.044715815210807</v>
+        <v>1.047328740686164</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.048227137393509</v>
+        <v>1.055667358769473</v>
       </c>
       <c r="N25">
-        <v>1.015530765106887</v>
+        <v>1.017137377023886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034902331059937</v>
+        <v>1.015738681548451</v>
       </c>
       <c r="D2">
-        <v>1.045138032827721</v>
+        <v>1.036543018008782</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.053680773777689</v>
+        <v>1.040796840213717</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042693233828063</v>
+        <v>1.055431237534312</v>
       </c>
       <c r="J2">
-        <v>1.040019034977926</v>
+        <v>1.037458629826846</v>
       </c>
       <c r="K2">
-        <v>1.047907115532507</v>
+        <v>1.047515685630997</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.056426072582815</v>
+        <v>1.051715628659095</v>
       </c>
       <c r="N2">
-        <v>1.017319576930855</v>
+        <v>1.016400961201075</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035657988304486</v>
+        <v>1.019336530515523</v>
       </c>
       <c r="D3">
-        <v>1.045745396744404</v>
+        <v>1.039334060633608</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.054418524550014</v>
+        <v>1.044081530624763</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042885083553713</v>
+        <v>1.056613221069573</v>
       </c>
       <c r="J3">
-        <v>1.040418997080361</v>
+        <v>1.039313591393257</v>
       </c>
       <c r="K3">
-        <v>1.048326390931843</v>
+        <v>1.049487225605683</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.056977109150555</v>
+        <v>1.054179815982224</v>
       </c>
       <c r="N3">
-        <v>1.017451708051472</v>
+        <v>1.01701410574616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036147432989547</v>
+        <v>1.021622261532645</v>
       </c>
       <c r="D4">
-        <v>1.046138776229722</v>
+        <v>1.04110917770683</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.054896624278156</v>
+        <v>1.046172339974393</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04300813748756</v>
+        <v>1.057354277620942</v>
       </c>
       <c r="J4">
-        <v>1.040677584110099</v>
+        <v>1.040488585808785</v>
       </c>
       <c r="K4">
-        <v>1.048597368528881</v>
+        <v>1.050735531105204</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.057333722234377</v>
+        <v>1.055743699813172</v>
       </c>
       <c r="N4">
-        <v>1.017537127954807</v>
+        <v>1.017402514755681</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036353309499031</v>
+        <v>1.022573336464624</v>
       </c>
       <c r="D5">
-        <v>1.046304240650694</v>
+        <v>1.041848225251885</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.055097788977462</v>
+        <v>1.04704324852936</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043059608543607</v>
+        <v>1.057660225180477</v>
       </c>
       <c r="J5">
-        <v>1.040786241275399</v>
+        <v>1.040976635448633</v>
       </c>
       <c r="K5">
-        <v>1.048711209066991</v>
+        <v>1.051253897453113</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.057483653930448</v>
+        <v>1.056393998793781</v>
       </c>
       <c r="N5">
-        <v>1.017573019416194</v>
+        <v>1.01756385028223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036387883698901</v>
+        <v>1.022732456792841</v>
       </c>
       <c r="D6">
-        <v>1.046332027940154</v>
+        <v>1.041971896783367</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.055131575414291</v>
+        <v>1.047189010961876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043068235439564</v>
+        <v>1.057711269910307</v>
       </c>
       <c r="J6">
-        <v>1.040804482156121</v>
+        <v>1.041058237957317</v>
       </c>
       <c r="K6">
-        <v>1.048730318752187</v>
+        <v>1.051340560899426</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.057508828748652</v>
+        <v>1.056502771944523</v>
       </c>
       <c r="N6">
-        <v>1.017579044619402</v>
+        <v>1.017590826032843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03615018347611</v>
+        <v>1.02163500816262</v>
       </c>
       <c r="D7">
-        <v>1.046140986831328</v>
+        <v>1.041119080999447</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.05489931157925</v>
+        <v>1.046184008515612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0430088262723</v>
+        <v>1.057358387556223</v>
       </c>
       <c r="J7">
-        <v>1.040679036201653</v>
+        <v>1.040495130228401</v>
       </c>
       <c r="K7">
-        <v>1.048598889981772</v>
+        <v>1.050742482589121</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057335725585834</v>
+        <v>1.055752417043597</v>
       </c>
       <c r="N7">
-        <v>1.017537607613751</v>
+        <v>1.017404678140023</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035157607630605</v>
+        <v>1.016963528749173</v>
       </c>
       <c r="D8">
-        <v>1.045343215609467</v>
+        <v>1.037492767084038</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.05392994856519</v>
+        <v>1.04191421517674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042758294590441</v>
+        <v>1.055835675015746</v>
       </c>
       <c r="J8">
-        <v>1.040154247817227</v>
+        <v>1.038090843132791</v>
       </c>
       <c r="K8">
-        <v>1.048048877341657</v>
+        <v>1.048187739772411</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.056612285411805</v>
+        <v>1.052554855111353</v>
       </c>
       <c r="N8">
-        <v>1.017364247094521</v>
+        <v>1.016609929580999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033412351864272</v>
+        <v>1.008394299052244</v>
       </c>
       <c r="D9">
-        <v>1.043940394541465</v>
+        <v>1.030857848201851</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.052227459553298</v>
+        <v>1.034115091488298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042308550941839</v>
+        <v>1.052965870896704</v>
       </c>
       <c r="J9">
-        <v>1.039227913097261</v>
+        <v>1.033654075929327</v>
       </c>
       <c r="K9">
-        <v>1.047077285457167</v>
+        <v>1.043469359247307</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.055337994356494</v>
+        <v>1.046677903049017</v>
       </c>
       <c r="N9">
-        <v>1.017058187909476</v>
+        <v>1.015143555198193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032251508556775</v>
+        <v>1.002434924193484</v>
       </c>
       <c r="D10">
-        <v>1.043007282825508</v>
+        <v>1.02625756753655</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.051096395463353</v>
+        <v>1.028715756311085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042003212422738</v>
+        <v>1.050920485927544</v>
       </c>
       <c r="J10">
-        <v>1.038609364964743</v>
+        <v>1.030552267166896</v>
       </c>
       <c r="K10">
-        <v>1.046428030616491</v>
+        <v>1.040168383108256</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.054488909535334</v>
+        <v>1.042585198166465</v>
       </c>
       <c r="N10">
-        <v>1.016853788040943</v>
+        <v>1.014118593940386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03174950539222</v>
+        <v>0.9997913008560866</v>
       </c>
       <c r="D11">
-        <v>1.042603758430172</v>
+        <v>1.024220688240741</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.050607591164511</v>
+        <v>1.026326842758512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041869702119529</v>
+        <v>1.050001857235284</v>
       </c>
       <c r="J11">
-        <v>1.038341308006237</v>
+        <v>1.029172764534842</v>
       </c>
       <c r="K11">
-        <v>1.046146552165097</v>
+        <v>1.03869984994497</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.05412137347366</v>
+        <v>1.040768784311525</v>
       </c>
       <c r="N11">
-        <v>1.016765200801441</v>
+        <v>1.013662811043559</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031563138585627</v>
+        <v>0.9987994272359083</v>
       </c>
       <c r="D12">
-        <v>1.042453951497176</v>
+        <v>1.023457086538479</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.050426173003965</v>
+        <v>1.025431518698622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041819916537782</v>
+        <v>1.0496555397978</v>
       </c>
       <c r="J12">
-        <v>1.038241707756098</v>
+        <v>1.028654684511647</v>
       </c>
       <c r="K12">
-        <v>1.046041947898131</v>
+        <v>1.038148273823765</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.053984874521004</v>
+        <v>1.040087188321794</v>
       </c>
       <c r="N12">
-        <v>1.016732283879944</v>
+        <v>1.013491649164189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031603110363974</v>
+        <v>0.9990126431870566</v>
       </c>
       <c r="D13">
-        <v>1.042486081940856</v>
+        <v>1.023621203494215</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.050465081194789</v>
+        <v>1.025623934939732</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041830604474391</v>
+        <v>1.04973005917701</v>
       </c>
       <c r="J13">
-        <v>1.038263073772916</v>
+        <v>1.028766074454954</v>
       </c>
       <c r="K13">
-        <v>1.046064388136369</v>
+        <v>1.038266868196632</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.054014153062215</v>
+        <v>1.040233709360635</v>
       </c>
       <c r="N13">
-        <v>1.016739345192428</v>
+        <v>1.013528449406617</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031734098212571</v>
+        <v>0.999709517049135</v>
       </c>
       <c r="D14">
-        <v>1.042591373698947</v>
+        <v>1.024157713347281</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.050592592101464</v>
+        <v>1.026252999583288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04186559077829</v>
+        <v>1.049973335391775</v>
       </c>
       <c r="J14">
-        <v>1.038333075662832</v>
+        <v>1.029130056783789</v>
       </c>
       <c r="K14">
-        <v>1.046137906568258</v>
+        <v>1.038654382132084</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.054110090003117</v>
+        <v>1.040712585614687</v>
       </c>
       <c r="N14">
-        <v>1.016762480114008</v>
+        <v>1.013648701163708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03181481739403</v>
+        <v>1.000137557256735</v>
       </c>
       <c r="D15">
-        <v>1.042656258085948</v>
+        <v>1.024487337207143</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.050671175128163</v>
+        <v>1.026639520479286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041887121326869</v>
+        <v>1.05012254589672</v>
       </c>
       <c r="J15">
-        <v>1.03837620194202</v>
+        <v>1.029353560549922</v>
       </c>
       <c r="K15">
-        <v>1.04618319703452</v>
+        <v>1.038892327806703</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.054169202662717</v>
+        <v>1.041006715139848</v>
       </c>
       <c r="N15">
-        <v>1.016776732769102</v>
+        <v>1.013722543237273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032284838704569</v>
+        <v>1.002609006186672</v>
       </c>
       <c r="D16">
-        <v>1.043034074519072</v>
+        <v>1.026391779704445</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.051128856081046</v>
+        <v>1.028873200069625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04201204581895</v>
+        <v>1.050980745553814</v>
       </c>
       <c r="J16">
-        <v>1.0386271504677</v>
+        <v>1.030643036272416</v>
       </c>
       <c r="K16">
-        <v>1.046446704232575</v>
+        <v>1.040265001503378</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.054513304442898</v>
+        <v>1.042704794198198</v>
       </c>
       <c r="N16">
-        <v>1.016859665621872</v>
+        <v>1.014148585068224</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032579845938194</v>
+        <v>1.004142075928441</v>
       </c>
       <c r="D17">
-        <v>1.043271209186462</v>
+        <v>1.027574175664354</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.051416204199178</v>
+        <v>1.030260463898168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042090061125424</v>
+        <v>1.051510146093846</v>
       </c>
       <c r="J17">
-        <v>1.03878450547082</v>
+        <v>1.031442005594952</v>
       </c>
       <c r="K17">
-        <v>1.046611903519754</v>
+        <v>1.041115406922197</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.054729184662426</v>
+        <v>1.04375793510347</v>
       </c>
       <c r="N17">
-        <v>1.016911665912389</v>
+        <v>1.014412580399916</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03275198121943</v>
+        <v>1.005030223911896</v>
       </c>
       <c r="D18">
-        <v>1.043409575781095</v>
+        <v>1.028259530946716</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.051583901386344</v>
+        <v>1.031064736315402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042135440959381</v>
+        <v>1.051815766215199</v>
       </c>
       <c r="J18">
-        <v>1.038876266518352</v>
+        <v>1.031904533183729</v>
       </c>
       <c r="K18">
-        <v>1.046708227907452</v>
+        <v>1.041607667638079</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.054855115716164</v>
+        <v>1.044367963005745</v>
       </c>
       <c r="N18">
-        <v>1.01694198898063</v>
+        <v>1.014565414311347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032810685453669</v>
+        <v>1.005332043037787</v>
       </c>
       <c r="D19">
-        <v>1.043456763626491</v>
+        <v>1.02849249506488</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.05164109731272</v>
+        <v>1.03133815151684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042150893050751</v>
+        <v>1.051919441332311</v>
       </c>
       <c r="J19">
-        <v>1.038907550983386</v>
+        <v>1.03206165584363</v>
       </c>
       <c r="K19">
-        <v>1.046741066297075</v>
+        <v>1.041774883163462</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.054898056893868</v>
+        <v>1.044575253068444</v>
       </c>
       <c r="N19">
-        <v>1.016952327022774</v>
+        <v>1.014617333586646</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032548187969961</v>
+        <v>1.003978222435195</v>
       </c>
       <c r="D20">
-        <v>1.043245761699346</v>
+        <v>1.027447764085967</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.051385364944873</v>
+        <v>1.030112132188098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042081703762214</v>
+        <v>1.051453675366411</v>
       </c>
       <c r="J20">
-        <v>1.038767624978712</v>
+        <v>1.031356646961898</v>
       </c>
       <c r="K20">
-        <v>1.046594182660504</v>
+        <v>1.04102455752362</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.054706021527211</v>
+        <v>1.043645384566019</v>
       </c>
       <c r="N20">
-        <v>1.016906087579068</v>
+        <v>1.014384375623302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031695522793291</v>
+        <v>0.9995045822628438</v>
       </c>
       <c r="D21">
-        <v>1.042560365676243</v>
+        <v>1.023999920382415</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.050555039282821</v>
+        <v>1.026067978519942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041855293529412</v>
+        <v>1.049901838544354</v>
       </c>
       <c r="J21">
-        <v>1.038312462722657</v>
+        <v>1.029023031301401</v>
       </c>
       <c r="K21">
-        <v>1.04611625860852</v>
+        <v>1.038540439001295</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.05408183839034</v>
+        <v>1.040571761029163</v>
       </c>
       <c r="N21">
-        <v>1.016755667774901</v>
+        <v>1.013613342015599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031159995098409</v>
+        <v>0.9966342395766232</v>
       </c>
       <c r="D22">
-        <v>1.042129893802619</v>
+        <v>1.021791401903234</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.05003382360636</v>
+        <v>1.023478946495463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0417118189714</v>
+        <v>1.048896564604114</v>
       </c>
       <c r="J22">
-        <v>1.038026099886778</v>
+        <v>1.027522873285884</v>
       </c>
       <c r="K22">
-        <v>1.045815476541974</v>
+        <v>1.036943184329486</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.053689508039782</v>
+        <v>1.038599201753618</v>
       </c>
       <c r="N22">
-        <v>1.016661025542497</v>
+        <v>1.01311774383963</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031443833152843</v>
+        <v>0.9981614686890946</v>
       </c>
       <c r="D23">
-        <v>1.042358050457186</v>
+        <v>1.022966131280402</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.050310049254104</v>
+        <v>1.024855941922677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041787983548128</v>
+        <v>1.04943233318497</v>
       </c>
       <c r="J23">
-        <v>1.03817792326875</v>
+        <v>1.028321326663519</v>
       </c>
       <c r="K23">
-        <v>1.045974954018165</v>
+        <v>1.037793346997884</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.053897477967012</v>
+        <v>1.03964877664723</v>
       </c>
       <c r="N23">
-        <v>1.016711203411091</v>
+        <v>1.0133815182305</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032562492650072</v>
+        <v>1.004052279490229</v>
       </c>
       <c r="D24">
-        <v>1.043257260169312</v>
+        <v>1.027504897356896</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.051399299592797</v>
+        <v>1.030179172007894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042085480481792</v>
+        <v>1.051479201843994</v>
       </c>
       <c r="J24">
-        <v>1.038775252612973</v>
+        <v>1.031395227648455</v>
       </c>
       <c r="K24">
-        <v>1.046602190057904</v>
+        <v>1.041065620080591</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.054716487914823</v>
+        <v>1.043696254429391</v>
       </c>
       <c r="N24">
-        <v>1.016908608212005</v>
+        <v>1.014397123697268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033863081616542</v>
+        <v>1.010651603294854</v>
       </c>
       <c r="D25">
-        <v>1.044302695368733</v>
+        <v>1.032603387774278</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.052666910703025</v>
+        <v>1.036165451730326</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042425795490298</v>
+        <v>1.053730566418423</v>
       </c>
       <c r="J25">
-        <v>1.039467573297457</v>
+        <v>1.03482573995175</v>
       </c>
       <c r="K25">
-        <v>1.047328740686164</v>
+        <v>1.044715815210806</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.055667358769473</v>
+        <v>1.048227137393508</v>
       </c>
       <c r="N25">
-        <v>1.017137377023886</v>
+        <v>1.015530765106886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015738681548451</v>
+        <v>1.011544062050214</v>
       </c>
       <c r="D2">
-        <v>1.036543018008782</v>
+        <v>1.031746967571998</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.028350945495354</v>
       </c>
       <c r="F2">
-        <v>1.040796840213717</v>
+        <v>1.037457966371969</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055431237534312</v>
+        <v>1.047716209686751</v>
       </c>
       <c r="J2">
-        <v>1.037458629826846</v>
+        <v>1.033384890531759</v>
       </c>
       <c r="K2">
-        <v>1.047515685630997</v>
+        <v>1.042781048577737</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.039428946148434</v>
       </c>
       <c r="M2">
-        <v>1.051715628659095</v>
+        <v>1.048418998629428</v>
       </c>
       <c r="N2">
-        <v>1.016400961201075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015030569527266</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046892752207531</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04132018947016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019336530515523</v>
+        <v>1.014634244848833</v>
       </c>
       <c r="D3">
-        <v>1.039334060633608</v>
+        <v>1.033823164550931</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.031161848180896</v>
       </c>
       <c r="F3">
-        <v>1.044081530624763</v>
+        <v>1.039938761368008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056613221069573</v>
+        <v>1.048328173841456</v>
       </c>
       <c r="J3">
-        <v>1.039313591393257</v>
+        <v>1.034733762716081</v>
       </c>
       <c r="K3">
-        <v>1.049487225605683</v>
+        <v>1.044040816626406</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.041410948052018</v>
       </c>
       <c r="M3">
-        <v>1.054179815982224</v>
+        <v>1.050084901726104</v>
       </c>
       <c r="N3">
-        <v>1.01701410574616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015484170629714</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048211190078288</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042208291612044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021622261532645</v>
+        <v>1.016602937125485</v>
       </c>
       <c r="D4">
-        <v>1.04110917770683</v>
+        <v>1.035150055896288</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.032961443148089</v>
       </c>
       <c r="F4">
-        <v>1.046172339974393</v>
+        <v>1.041526408262468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057354277620942</v>
+        <v>1.048710857438095</v>
       </c>
       <c r="J4">
-        <v>1.040488585808785</v>
+        <v>1.035591266523375</v>
       </c>
       <c r="K4">
-        <v>1.050735531105204</v>
+        <v>1.044841981569221</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.042677685299048</v>
       </c>
       <c r="M4">
-        <v>1.055743699813172</v>
+        <v>1.051148205095843</v>
       </c>
       <c r="N4">
-        <v>1.017402514755681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015772554338969</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049052714048016</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042775671112558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022573336464624</v>
+        <v>1.017425838969535</v>
       </c>
       <c r="D5">
-        <v>1.041848225251885</v>
+        <v>1.035707450965406</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.033715500899972</v>
       </c>
       <c r="F5">
-        <v>1.04704324852936</v>
+        <v>1.042191977712412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057660225180477</v>
+        <v>1.048870349153901</v>
       </c>
       <c r="J5">
-        <v>1.040976635448633</v>
+        <v>1.035950576958973</v>
       </c>
       <c r="K5">
-        <v>1.051253897453113</v>
+        <v>1.04517891452152</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.043208511844357</v>
       </c>
       <c r="M5">
-        <v>1.056393998793781</v>
+        <v>1.051593995049508</v>
       </c>
       <c r="N5">
-        <v>1.01756385028223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015893584286475</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049405522701375</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043021050210951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022732456792841</v>
+        <v>1.017566600608319</v>
       </c>
       <c r="D6">
-        <v>1.041971896783367</v>
+        <v>1.035805016657693</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.033844288830445</v>
       </c>
       <c r="F6">
-        <v>1.047189010961876</v>
+        <v>1.042306215563684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057711269910307</v>
+        <v>1.048899089625577</v>
       </c>
       <c r="J6">
-        <v>1.041058237957317</v>
+        <v>1.036013637289479</v>
       </c>
       <c r="K6">
-        <v>1.051340560899426</v>
+        <v>1.04523945271039</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.043299838259105</v>
       </c>
       <c r="M6">
-        <v>1.056502771944523</v>
+        <v>1.051671341262018</v>
       </c>
       <c r="N6">
-        <v>1.017590826032843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015915053641664</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049466736295946</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043072564368573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02163500816262</v>
+        <v>1.016622053008253</v>
       </c>
       <c r="D7">
-        <v>1.041119080999447</v>
+        <v>1.035168785853155</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.032978102205383</v>
       </c>
       <c r="F7">
-        <v>1.046184008515612</v>
+        <v>1.04154262957293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057358387556223</v>
+        <v>1.04871875906809</v>
       </c>
       <c r="J7">
-        <v>1.040495130228401</v>
+        <v>1.035603975887618</v>
       </c>
       <c r="K7">
-        <v>1.050742482589121</v>
+        <v>1.044857638586666</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.042691285294658</v>
       </c>
       <c r="M7">
-        <v>1.055752417043597</v>
+        <v>1.051161407278772</v>
       </c>
       <c r="N7">
-        <v>1.017404678140023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015777454419919</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049063162568477</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042806771885058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016963528749173</v>
+        <v>1.012605000259564</v>
       </c>
       <c r="D8">
-        <v>1.037492767084038</v>
+        <v>1.032466036465679</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.029313194776853</v>
       </c>
       <c r="F8">
-        <v>1.04191421517674</v>
+        <v>1.038309136510719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055835675015746</v>
+        <v>1.047932950507971</v>
       </c>
       <c r="J8">
-        <v>1.038090843132791</v>
+        <v>1.033853771347878</v>
       </c>
       <c r="K8">
-        <v>1.048187739772411</v>
+        <v>1.043223484373894</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.040110216522238</v>
       </c>
       <c r="M8">
-        <v>1.052554855111353</v>
+        <v>1.048994033935893</v>
       </c>
       <c r="N8">
-        <v>1.016609929580999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015189046907278</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047347849967548</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041655843192161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008394299052244</v>
+        <v>1.00526872727048</v>
       </c>
       <c r="D9">
-        <v>1.030857848201851</v>
+        <v>1.027555173519376</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.02269190883912</v>
       </c>
       <c r="F9">
-        <v>1.034115091488298</v>
+        <v>1.032460460481139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052965870896704</v>
+        <v>1.046435667939342</v>
       </c>
       <c r="J9">
-        <v>1.033654075929327</v>
+        <v>1.030636795284879</v>
       </c>
       <c r="K9">
-        <v>1.043469359247307</v>
+        <v>1.040216464880256</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.035427249512005</v>
       </c>
       <c r="M9">
-        <v>1.046677903049017</v>
+        <v>1.045047961800813</v>
       </c>
       <c r="N9">
-        <v>1.015143555198193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014106684518022</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044224821128374</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039526538726657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002434924193484</v>
+        <v>1.000243526329595</v>
       </c>
       <c r="D10">
-        <v>1.02625756753655</v>
+        <v>1.024238651553558</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.018258156847813</v>
       </c>
       <c r="F10">
-        <v>1.028715756311085</v>
+        <v>1.028564544908988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050920485927544</v>
+        <v>1.045392364697792</v>
       </c>
       <c r="J10">
-        <v>1.030552267166896</v>
+        <v>1.028447485550958</v>
       </c>
       <c r="K10">
-        <v>1.040168383108256</v>
+        <v>1.038183639183039</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.032305398270472</v>
       </c>
       <c r="M10">
-        <v>1.042585198166465</v>
+        <v>1.042436524440492</v>
       </c>
       <c r="N10">
-        <v>1.014118593940386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013372952244493</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042209257790854</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038105967593696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9997913008560866</v>
+        <v>0.9983571355001477</v>
       </c>
       <c r="D11">
-        <v>1.024220688240741</v>
+        <v>1.023173787686118</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.017032282374114</v>
       </c>
       <c r="F11">
-        <v>1.026326842758512</v>
+        <v>1.02767132029888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050001857235284</v>
+        <v>1.045132520517496</v>
       </c>
       <c r="J11">
-        <v>1.029172764534842</v>
+        <v>1.027798419626573</v>
       </c>
       <c r="K11">
-        <v>1.03869984994497</v>
+        <v>1.037671524295043</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.031639987477655</v>
       </c>
       <c r="M11">
-        <v>1.040768784311525</v>
+        <v>1.04208960551581</v>
       </c>
       <c r="N11">
-        <v>1.013662811043559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013177156347445</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042368969812473</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037776606595561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9987994272359083</v>
+        <v>0.9977725175082836</v>
       </c>
       <c r="D12">
-        <v>1.023457086538479</v>
+        <v>1.022916856139698</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.016842803646771</v>
       </c>
       <c r="F12">
-        <v>1.025431518698622</v>
+        <v>1.027639245681537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0496555397978</v>
+        <v>1.04510959687477</v>
       </c>
       <c r="J12">
-        <v>1.028654684511647</v>
+        <v>1.027671448487052</v>
       </c>
       <c r="K12">
-        <v>1.038148273823765</v>
+        <v>1.037617792580559</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.031654282860031</v>
       </c>
       <c r="M12">
-        <v>1.040087188321794</v>
+        <v>1.04225541078907</v>
       </c>
       <c r="N12">
-        <v>1.013491649164189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013151792504731</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042825144647535</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037738616805229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9990126431870566</v>
+        <v>0.9981601231976432</v>
       </c>
       <c r="D13">
-        <v>1.023621203494215</v>
+        <v>1.023277991909982</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.017449311847627</v>
       </c>
       <c r="F13">
-        <v>1.025623934939732</v>
+        <v>1.028284996755567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04973005917701</v>
+        <v>1.045278374597807</v>
       </c>
       <c r="J13">
-        <v>1.028766074454954</v>
+        <v>1.027949647843687</v>
       </c>
       <c r="K13">
-        <v>1.038266868196632</v>
+        <v>1.037929825516</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.032206737704765</v>
       </c>
       <c r="M13">
-        <v>1.040233709360635</v>
+        <v>1.042847363828539</v>
       </c>
       <c r="N13">
-        <v>1.013528449406617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013260737217188</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043568809389903</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037956749694053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.999709517049135</v>
+        <v>0.9988732757703865</v>
       </c>
       <c r="D14">
-        <v>1.024157713347281</v>
+        <v>1.023812361988419</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.018234184348856</v>
       </c>
       <c r="F14">
-        <v>1.026252999583288</v>
+        <v>1.029044443239821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049973335391775</v>
+        <v>1.045483830816887</v>
       </c>
       <c r="J14">
-        <v>1.029130056783789</v>
+        <v>1.028328724194118</v>
       </c>
       <c r="K14">
-        <v>1.038654382132084</v>
+        <v>1.038315161770757</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.032836761889886</v>
       </c>
       <c r="M14">
-        <v>1.040712585614687</v>
+        <v>1.043454929770032</v>
       </c>
       <c r="N14">
-        <v>1.013648701163708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013398223597436</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04422180993676</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038230612054418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000137557256735</v>
+        <v>0.9992617102390058</v>
       </c>
       <c r="D15">
-        <v>1.024487337207143</v>
+        <v>1.024083308129125</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.018608133128209</v>
       </c>
       <c r="F15">
-        <v>1.026639520479286</v>
+        <v>1.02938925528391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05012254589672</v>
+        <v>1.045578897440434</v>
       </c>
       <c r="J15">
-        <v>1.029353560549922</v>
+        <v>1.028513960201679</v>
       </c>
       <c r="K15">
-        <v>1.038892327806703</v>
+        <v>1.038495417117418</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.033117429532264</v>
       </c>
       <c r="M15">
-        <v>1.041006715139848</v>
+        <v>1.043708457682188</v>
       </c>
       <c r="N15">
-        <v>1.013722543237273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01346275216769</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044459616466957</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038363905117268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002609006186672</v>
+        <v>1.001309212258446</v>
       </c>
       <c r="D16">
-        <v>1.026391779704445</v>
+        <v>1.025418368974415</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.020373088313147</v>
       </c>
       <c r="F16">
-        <v>1.028873200069625</v>
+        <v>1.030935528339127</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050980745553814</v>
+        <v>1.046000799827544</v>
       </c>
       <c r="J16">
-        <v>1.030643036272416</v>
+        <v>1.02939436332331</v>
       </c>
       <c r="K16">
-        <v>1.040265001503378</v>
+        <v>1.039307991432492</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.034348364692459</v>
       </c>
       <c r="M16">
-        <v>1.042704794198198</v>
+        <v>1.044732721768927</v>
       </c>
       <c r="N16">
-        <v>1.014148585068224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013755117980921</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045230603200027</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038941576161682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004142075928441</v>
+        <v>1.002508781244185</v>
       </c>
       <c r="D17">
-        <v>1.027574175664354</v>
+        <v>1.026164389470366</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.021316492841397</v>
       </c>
       <c r="F17">
-        <v>1.030260463898168</v>
+        <v>1.031721126799402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051510146093846</v>
+        <v>1.046214940681956</v>
       </c>
       <c r="J17">
-        <v>1.031442005594952</v>
+        <v>1.029870890902099</v>
       </c>
       <c r="K17">
-        <v>1.041115406922197</v>
+        <v>1.039728704234052</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.034960812143072</v>
       </c>
       <c r="M17">
-        <v>1.04375793510347</v>
+        <v>1.045194926362326</v>
       </c>
       <c r="N17">
-        <v>1.014412580399916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013907198605235</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04546735081893</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039241613541207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005030223911896</v>
+        <v>1.003084139506341</v>
       </c>
       <c r="D18">
-        <v>1.028259530946716</v>
+        <v>1.026454895845559</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.021609123561802</v>
       </c>
       <c r="F18">
-        <v>1.031064736315402</v>
+        <v>1.031885823941753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051815766215199</v>
+        <v>1.046262206271883</v>
       </c>
       <c r="J18">
-        <v>1.031904533183729</v>
+        <v>1.030031135977535</v>
       </c>
       <c r="K18">
-        <v>1.041607667638079</v>
+        <v>1.039832090407084</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.03506499653917</v>
       </c>
       <c r="M18">
-        <v>1.044367963005745</v>
+        <v>1.045175964607681</v>
       </c>
       <c r="N18">
-        <v>1.014565414311347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01394752484991</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045215594015027</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039303120884444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005332043037787</v>
+        <v>1.003106392493611</v>
       </c>
       <c r="D19">
-        <v>1.02849249506488</v>
+        <v>1.026350097237184</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.021319620878628</v>
       </c>
       <c r="F19">
-        <v>1.03133815151684</v>
+        <v>1.03149683460098</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051919441332311</v>
+        <v>1.046169482048038</v>
       </c>
       <c r="J19">
-        <v>1.03206165584363</v>
+        <v>1.029918611360968</v>
       </c>
       <c r="K19">
-        <v>1.041774883163462</v>
+        <v>1.039666792567274</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.034717598304492</v>
       </c>
       <c r="M19">
-        <v>1.044575253068444</v>
+        <v>1.044731420247698</v>
       </c>
       <c r="N19">
-        <v>1.014617333586646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01389346652073</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044540005576111</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039192621025598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003978222435195</v>
+        <v>1.001564844098454</v>
       </c>
       <c r="D20">
-        <v>1.027447764085967</v>
+        <v>1.025124089299842</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.01942162100666</v>
       </c>
       <c r="F20">
-        <v>1.030112132188098</v>
+        <v>1.029591597546122</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051453675366411</v>
+        <v>1.04568021712292</v>
       </c>
       <c r="J20">
-        <v>1.031356646961898</v>
+        <v>1.02903557661833</v>
       </c>
       <c r="K20">
-        <v>1.04102455752362</v>
+        <v>1.038739093918692</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.033131350113227</v>
       </c>
       <c r="M20">
-        <v>1.043645384566019</v>
+        <v>1.04313333373234</v>
       </c>
       <c r="N20">
-        <v>1.014384375623302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01357195226362</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042750204536353</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038540611513005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9995045822628438</v>
+        <v>0.997738905141981</v>
       </c>
       <c r="D21">
-        <v>1.023999920382415</v>
+        <v>1.022572605404899</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.015981823466632</v>
       </c>
       <c r="F21">
-        <v>1.026067978519942</v>
+        <v>1.026531468371566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049901838544354</v>
+        <v>1.04484582437839</v>
       </c>
       <c r="J21">
-        <v>1.029023031301401</v>
+        <v>1.027331466936346</v>
       </c>
       <c r="K21">
-        <v>1.038540439001295</v>
+        <v>1.037138590785885</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.030666611882492</v>
       </c>
       <c r="M21">
-        <v>1.040571761029163</v>
+        <v>1.041027043979373</v>
       </c>
       <c r="N21">
-        <v>1.013613342015599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012996790305333</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041042543644263</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037412213870906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9966342395766232</v>
+        <v>0.9953040982573065</v>
       </c>
       <c r="D22">
-        <v>1.021791401903234</v>
+        <v>1.02095947865876</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.013830669791091</v>
       </c>
       <c r="F22">
-        <v>1.023478946495463</v>
+        <v>1.024627387756986</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048896564604114</v>
+        <v>1.044312117511532</v>
       </c>
       <c r="J22">
-        <v>1.027522873285884</v>
+        <v>1.026251791771816</v>
       </c>
       <c r="K22">
-        <v>1.036943184329486</v>
+        <v>1.036126853385558</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.029133028941603</v>
       </c>
       <c r="M22">
-        <v>1.038599201753618</v>
+        <v>1.03972626498428</v>
       </c>
       <c r="N22">
-        <v>1.01311774383963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012632894178738</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040013064323829</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03668341487375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9981614686890946</v>
+        <v>0.9965912534997466</v>
       </c>
       <c r="D23">
-        <v>1.022966131280402</v>
+        <v>1.021806619724773</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.014967244546626</v>
       </c>
       <c r="F23">
-        <v>1.024855941922677</v>
+        <v>1.025632370046123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04943233318497</v>
+        <v>1.044591319435734</v>
       </c>
       <c r="J23">
-        <v>1.028321326663519</v>
+        <v>1.026818798267312</v>
       </c>
       <c r="K23">
-        <v>1.037793346997884</v>
+        <v>1.036655012196517</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.029941832352985</v>
       </c>
       <c r="M23">
-        <v>1.03964877664723</v>
+        <v>1.040411127107165</v>
       </c>
       <c r="N23">
-        <v>1.0133815182305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012823327062697</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040555086937885</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037047242137991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004052279490229</v>
+        <v>1.001584541580164</v>
       </c>
       <c r="D24">
-        <v>1.027504897356896</v>
+        <v>1.025112759442243</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.019398114970981</v>
       </c>
       <c r="F24">
-        <v>1.030179172007894</v>
+        <v>1.02955088959281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051479201843994</v>
+        <v>1.045665636647235</v>
       </c>
       <c r="J24">
-        <v>1.031395227648455</v>
+        <v>1.029021732016747</v>
       </c>
       <c r="K24">
-        <v>1.041065620080591</v>
+        <v>1.038712766589619</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.033092931422771</v>
       </c>
       <c r="M24">
-        <v>1.043696254429391</v>
+        <v>1.043078198498796</v>
       </c>
       <c r="N24">
-        <v>1.014397123697268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013564389783069</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042665891878968</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038494689619079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010651603294854</v>
+        <v>1.007208462923454</v>
       </c>
       <c r="D25">
-        <v>1.032603387774278</v>
+        <v>1.028858340031293</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.024433130221342</v>
       </c>
       <c r="F25">
-        <v>1.036165451730326</v>
+        <v>1.034001139174467</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053730566418423</v>
+        <v>1.046844316870762</v>
       </c>
       <c r="J25">
-        <v>1.03482573995175</v>
+        <v>1.031495645189281</v>
       </c>
       <c r="K25">
-        <v>1.044715815210806</v>
+        <v>1.041024595915635</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.036663634209105</v>
       </c>
       <c r="M25">
-        <v>1.048227137393508</v>
+        <v>1.046093602841473</v>
       </c>
       <c r="N25">
-        <v>1.015530765106886</v>
+        <v>1.014396687236923</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045052371188042</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040126410122464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011544062050214</v>
+        <v>1.010992932010586</v>
       </c>
       <c r="D2">
-        <v>1.031746967571998</v>
+        <v>1.030662768342962</v>
       </c>
       <c r="E2">
-        <v>1.028350945495354</v>
+        <v>1.027855339941585</v>
       </c>
       <c r="F2">
-        <v>1.037457966371969</v>
+        <v>1.036797527752672</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047716209686751</v>
+        <v>1.047256560759485</v>
       </c>
       <c r="J2">
-        <v>1.033384890531759</v>
+        <v>1.032849745141133</v>
       </c>
       <c r="K2">
-        <v>1.042781048577737</v>
+        <v>1.041710831596432</v>
       </c>
       <c r="L2">
-        <v>1.039428946148434</v>
+        <v>1.038939780482079</v>
       </c>
       <c r="M2">
-        <v>1.048418998629428</v>
+        <v>1.047766956208837</v>
       </c>
       <c r="N2">
-        <v>1.015030569527266</v>
+        <v>1.015912476047865</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046892752207531</v>
+        <v>1.046376708693234</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04132018947016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04057220167525</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023128078353783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014634244848833</v>
+        <v>1.013990829830977</v>
       </c>
       <c r="D3">
-        <v>1.033823164550931</v>
+        <v>1.032616623932465</v>
       </c>
       <c r="E3">
-        <v>1.031161848180896</v>
+        <v>1.030602591153511</v>
       </c>
       <c r="F3">
-        <v>1.039938761368008</v>
+        <v>1.039199382278301</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048328173841456</v>
+        <v>1.047807490576422</v>
       </c>
       <c r="J3">
-        <v>1.034733762716081</v>
+        <v>1.034107223328178</v>
       </c>
       <c r="K3">
-        <v>1.044040816626406</v>
+        <v>1.042848508377645</v>
       </c>
       <c r="L3">
-        <v>1.041410948052018</v>
+        <v>1.040858325148308</v>
       </c>
       <c r="M3">
-        <v>1.050084901726104</v>
+        <v>1.049354113141683</v>
       </c>
       <c r="N3">
-        <v>1.015484170629714</v>
+        <v>1.01624832859883</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048211190078288</v>
+        <v>1.047632825787425</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042208291612044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041373701652625</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023335433227317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016602937125485</v>
+        <v>1.015901244464839</v>
       </c>
       <c r="D4">
-        <v>1.035150055896288</v>
+        <v>1.033865885940174</v>
       </c>
       <c r="E4">
-        <v>1.032961443148089</v>
+        <v>1.03236205160563</v>
       </c>
       <c r="F4">
-        <v>1.041526408262468</v>
+        <v>1.040737048961417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048710857438095</v>
+        <v>1.048151422007711</v>
       </c>
       <c r="J4">
-        <v>1.035591266523375</v>
+        <v>1.034906759249552</v>
       </c>
       <c r="K4">
-        <v>1.044841981569221</v>
+        <v>1.043572063969374</v>
       </c>
       <c r="L4">
-        <v>1.042677685299048</v>
+        <v>1.042084975397926</v>
       </c>
       <c r="M4">
-        <v>1.051148205095843</v>
+        <v>1.050367470153565</v>
       </c>
       <c r="N4">
-        <v>1.015772554338969</v>
+        <v>1.016461916586831</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049052714048016</v>
+        <v>1.048434821649996</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042775671112558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041886288547482</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023465053217243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017425838969535</v>
+        <v>1.016699921037606</v>
       </c>
       <c r="D5">
-        <v>1.035707450965406</v>
+        <v>1.034390971059749</v>
       </c>
       <c r="E5">
-        <v>1.033715500899972</v>
+        <v>1.033099453538203</v>
       </c>
       <c r="F5">
-        <v>1.042191977712412</v>
+        <v>1.041381830441714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048870349153901</v>
+        <v>1.048294768659237</v>
       </c>
       <c r="J5">
-        <v>1.035950576958973</v>
+        <v>1.035241917503984</v>
       </c>
       <c r="K5">
-        <v>1.04517891452152</v>
+        <v>1.043876663881023</v>
       </c>
       <c r="L5">
-        <v>1.043208511844357</v>
+        <v>1.042599149048489</v>
       </c>
       <c r="M5">
-        <v>1.051593995049508</v>
+        <v>1.050792466194411</v>
       </c>
       <c r="N5">
-        <v>1.015893584286475</v>
+        <v>1.016551609919344</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049405522701375</v>
+        <v>1.04877117379511</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043021050210951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042109516031795</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023519498081436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017566600608319</v>
+        <v>1.016836564881145</v>
       </c>
       <c r="D6">
-        <v>1.035805016657693</v>
+        <v>1.034483093532632</v>
       </c>
       <c r="E6">
-        <v>1.033844288830445</v>
+        <v>1.03322542566062</v>
       </c>
       <c r="F6">
-        <v>1.042306215563684</v>
+        <v>1.041492554398278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048899089625577</v>
+        <v>1.048320775550886</v>
       </c>
       <c r="J6">
-        <v>1.036013637289479</v>
+        <v>1.035300870540111</v>
       </c>
       <c r="K6">
-        <v>1.04523945271039</v>
+        <v>1.043931753453068</v>
       </c>
       <c r="L6">
-        <v>1.043299838259105</v>
+        <v>1.042687659490035</v>
       </c>
       <c r="M6">
-        <v>1.051671341262018</v>
+        <v>1.050866296706124</v>
       </c>
       <c r="N6">
-        <v>1.015915053641664</v>
+        <v>1.016567568013676</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049466736295946</v>
+        <v>1.048829605032112</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043072564368573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.0421580450351</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023529831240574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016622053008253</v>
+        <v>1.015926227315975</v>
       </c>
       <c r="D7">
-        <v>1.035168785853155</v>
+        <v>1.033888378436852</v>
       </c>
       <c r="E7">
-        <v>1.032978102205383</v>
+        <v>1.032381351917477</v>
       </c>
       <c r="F7">
-        <v>1.04154262957293</v>
+        <v>1.040756218571354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04871875906809</v>
+        <v>1.048161942243501</v>
       </c>
       <c r="J7">
-        <v>1.035603975887618</v>
+        <v>1.034925184687296</v>
       </c>
       <c r="K7">
-        <v>1.044857638586666</v>
+        <v>1.043591436339328</v>
       </c>
       <c r="L7">
-        <v>1.042691285294658</v>
+        <v>1.042101184703632</v>
       </c>
       <c r="M7">
-        <v>1.051161407278772</v>
+        <v>1.050383585208625</v>
       </c>
       <c r="N7">
-        <v>1.015777454419919</v>
+        <v>1.01649303848075</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049063162568477</v>
+        <v>1.048447575497089</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042806771885058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041922011970632</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023470444242804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012605000259564</v>
+        <v>1.012041690176497</v>
       </c>
       <c r="D8">
-        <v>1.032466036465679</v>
+        <v>1.031353234249252</v>
       </c>
       <c r="E8">
-        <v>1.029313194776853</v>
+        <v>1.028804916147683</v>
       </c>
       <c r="F8">
-        <v>1.038309136510719</v>
+        <v>1.037631879859786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047932950507971</v>
+        <v>1.047461379855685</v>
       </c>
       <c r="J8">
-        <v>1.033853771347878</v>
+        <v>1.033306263016809</v>
       </c>
       <c r="K8">
-        <v>1.043223484373894</v>
+        <v>1.042124615378567</v>
       </c>
       <c r="L8">
-        <v>1.040110216522238</v>
+        <v>1.039608346031117</v>
       </c>
       <c r="M8">
-        <v>1.048994033935893</v>
+        <v>1.048325134286207</v>
       </c>
       <c r="N8">
-        <v>1.015189046907278</v>
+        <v>1.016113131705032</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047347849967548</v>
+        <v>1.046818465520774</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041655843192161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040889860679137</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02320727572274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00526872727048</v>
+        <v>1.004930421443529</v>
       </c>
       <c r="D9">
-        <v>1.027555173519376</v>
+        <v>1.026736368139518</v>
       </c>
       <c r="E9">
-        <v>1.02269190883912</v>
+        <v>1.022338708648322</v>
       </c>
       <c r="F9">
-        <v>1.032460460481139</v>
+        <v>1.031973900170118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046435667939342</v>
+        <v>1.046110989041064</v>
       </c>
       <c r="J9">
-        <v>1.030636795284879</v>
+        <v>1.030310267150745</v>
       </c>
       <c r="K9">
-        <v>1.040216464880256</v>
+        <v>1.039410064258476</v>
       </c>
       <c r="L9">
-        <v>1.035427249512005</v>
+        <v>1.035079462247819</v>
       </c>
       <c r="M9">
-        <v>1.045047961800813</v>
+        <v>1.044568680920011</v>
       </c>
       <c r="N9">
-        <v>1.014106684518022</v>
+        <v>1.015322040086792</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044224821128374</v>
+        <v>1.043845504294504</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039526538726657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038967064744619</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022698615498152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000243526329595</v>
+        <v>1.000088425500242</v>
       </c>
       <c r="D10">
-        <v>1.024238651553558</v>
+        <v>1.02363945241642</v>
       </c>
       <c r="E10">
-        <v>1.018258156847813</v>
+        <v>1.018025329504844</v>
       </c>
       <c r="F10">
-        <v>1.028564544908988</v>
+        <v>1.028223425464287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045392364697792</v>
+        <v>1.045180441385574</v>
       </c>
       <c r="J10">
-        <v>1.028447485550958</v>
+        <v>1.028298535537672</v>
       </c>
       <c r="K10">
-        <v>1.038183639183039</v>
+        <v>1.03759461554649</v>
       </c>
       <c r="L10">
-        <v>1.032305398270472</v>
+        <v>1.032076583201286</v>
       </c>
       <c r="M10">
-        <v>1.042436524440492</v>
+        <v>1.042101133301213</v>
       </c>
       <c r="N10">
-        <v>1.013372952244493</v>
+        <v>1.014902897543089</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042209257790854</v>
+        <v>1.041943835174282</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038105967593696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037701864927987</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022354232515113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983571355001477</v>
+        <v>0.9982970622780919</v>
       </c>
       <c r="D11">
-        <v>1.023173787686118</v>
+        <v>1.022665014530648</v>
       </c>
       <c r="E11">
-        <v>1.017032282374114</v>
+        <v>1.016848736271612</v>
       </c>
       <c r="F11">
-        <v>1.02767132029888</v>
+        <v>1.027392519325123</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045132520517496</v>
+        <v>1.044970497076215</v>
       </c>
       <c r="J11">
-        <v>1.027798419626573</v>
+        <v>1.027740857455314</v>
       </c>
       <c r="K11">
-        <v>1.037671524295043</v>
+        <v>1.037171796001402</v>
       </c>
       <c r="L11">
-        <v>1.031639987477655</v>
+        <v>1.031459754490367</v>
       </c>
       <c r="M11">
-        <v>1.04208960551581</v>
+        <v>1.04181570350288</v>
       </c>
       <c r="N11">
-        <v>1.013177156347445</v>
+        <v>1.014996781988752</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042368969812473</v>
+        <v>1.042152316668963</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037776606595561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037438849618199</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022313118656534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9977725175082836</v>
+        <v>0.9977396195299213</v>
       </c>
       <c r="D12">
-        <v>1.022916856139698</v>
+        <v>1.022429867934772</v>
       </c>
       <c r="E12">
-        <v>1.016842803646771</v>
+        <v>1.016668492502528</v>
       </c>
       <c r="F12">
-        <v>1.027639245681537</v>
+        <v>1.027375509495523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04510959687477</v>
+        <v>1.04495973641566</v>
       </c>
       <c r="J12">
-        <v>1.027671448487052</v>
+        <v>1.027639951753926</v>
       </c>
       <c r="K12">
-        <v>1.037617792580559</v>
+        <v>1.03713960418792</v>
       </c>
       <c r="L12">
-        <v>1.031654282860031</v>
+        <v>1.031483169430061</v>
       </c>
       <c r="M12">
-        <v>1.04225541078907</v>
+        <v>1.04199638223808</v>
       </c>
       <c r="N12">
-        <v>1.013151792504731</v>
+        <v>1.015082933184169</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042825144647535</v>
+        <v>1.042620325016362</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037738616805229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037416089580272</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022335205801325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9981601231976432</v>
+        <v>0.9980947070411753</v>
       </c>
       <c r="D13">
-        <v>1.023277991909982</v>
+        <v>1.022755061993082</v>
       </c>
       <c r="E13">
-        <v>1.017449311847627</v>
+        <v>1.017250204371829</v>
       </c>
       <c r="F13">
-        <v>1.028284996755567</v>
+        <v>1.027996311821631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045278374597807</v>
+        <v>1.045108312961745</v>
       </c>
       <c r="J13">
-        <v>1.027949647843687</v>
+        <v>1.027887004859158</v>
       </c>
       <c r="K13">
-        <v>1.037929825516</v>
+        <v>1.037416305114934</v>
       </c>
       <c r="L13">
-        <v>1.032206737704765</v>
+        <v>1.032011265079579</v>
       </c>
       <c r="M13">
-        <v>1.042847363828539</v>
+        <v>1.042563806472378</v>
       </c>
       <c r="N13">
-        <v>1.013260737217188</v>
+        <v>1.015137080393307</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043568809389903</v>
+        <v>1.043344650235923</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037956749694053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037608995630207</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02241156583518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988732757703865</v>
+        <v>0.9987584462727905</v>
       </c>
       <c r="D14">
-        <v>1.023812361988419</v>
+        <v>1.023238479863981</v>
       </c>
       <c r="E14">
-        <v>1.018234184348856</v>
+        <v>1.01800304888332</v>
       </c>
       <c r="F14">
-        <v>1.029044443239821</v>
+        <v>1.028720550485653</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045483830816887</v>
+        <v>1.045285262882792</v>
       </c>
       <c r="J14">
-        <v>1.028328724194118</v>
+        <v>1.028218694722185</v>
       </c>
       <c r="K14">
-        <v>1.038315161770757</v>
+        <v>1.037751479612442</v>
       </c>
       <c r="L14">
-        <v>1.032836761889886</v>
+        <v>1.032609791448428</v>
       </c>
       <c r="M14">
-        <v>1.043454929770032</v>
+        <v>1.043136716351017</v>
       </c>
       <c r="N14">
-        <v>1.013398223597436</v>
+        <v>1.015161910884768</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04422180993676</v>
+        <v>1.043970288074274</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038230612054418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037847526029466</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022490097790336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9992617102390058</v>
+        <v>0.999122282028205</v>
       </c>
       <c r="D15">
-        <v>1.024083308129125</v>
+        <v>1.023484630439452</v>
       </c>
       <c r="E15">
-        <v>1.018608133128209</v>
+        <v>1.018362174741979</v>
       </c>
       <c r="F15">
-        <v>1.02938925528391</v>
+        <v>1.029048283809788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045578897440434</v>
+        <v>1.045366537613216</v>
       </c>
       <c r="J15">
-        <v>1.028513960201679</v>
+        <v>1.028380310523942</v>
       </c>
       <c r="K15">
-        <v>1.038495417117418</v>
+        <v>1.037907300634241</v>
       </c>
       <c r="L15">
-        <v>1.033117429532264</v>
+        <v>1.032875868897976</v>
       </c>
       <c r="M15">
-        <v>1.043708457682188</v>
+        <v>1.043373419290055</v>
       </c>
       <c r="N15">
-        <v>1.01346275216769</v>
+        <v>1.015165204295708</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044459616466957</v>
+        <v>1.04419480277223</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038363905117268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037964111800339</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022523150650427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001309212258446</v>
+        <v>1.001056320070694</v>
       </c>
       <c r="D16">
-        <v>1.025418368974415</v>
+        <v>1.024705143567913</v>
       </c>
       <c r="E16">
-        <v>1.020373088313147</v>
+        <v>1.020062506550539</v>
       </c>
       <c r="F16">
-        <v>1.030935528339127</v>
+        <v>1.030516300750947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046000799827544</v>
+        <v>1.045725743693911</v>
       </c>
       <c r="J16">
-        <v>1.02939436332331</v>
+        <v>1.029151439233031</v>
       </c>
       <c r="K16">
-        <v>1.039307991432492</v>
+        <v>1.038606808433149</v>
       </c>
       <c r="L16">
-        <v>1.034348364692459</v>
+        <v>1.03404309145598</v>
       </c>
       <c r="M16">
-        <v>1.044732721768927</v>
+        <v>1.044320472751122</v>
       </c>
       <c r="N16">
-        <v>1.013755117980921</v>
+        <v>1.015163270376259</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045230603200027</v>
+        <v>1.044904753155414</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038941576161682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03846214118573</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022652316888167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002508781244185</v>
+        <v>1.002201899800704</v>
       </c>
       <c r="D17">
-        <v>1.026164389470366</v>
+        <v>1.025394787224184</v>
       </c>
       <c r="E17">
-        <v>1.021316492841397</v>
+        <v>1.02097589156089</v>
       </c>
       <c r="F17">
-        <v>1.031721126799402</v>
+        <v>1.03126384725994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046214940681956</v>
+        <v>1.045909825584158</v>
       </c>
       <c r="J17">
-        <v>1.029870890902099</v>
+        <v>1.029575724428444</v>
       </c>
       <c r="K17">
-        <v>1.039728704234052</v>
+        <v>1.038971737718531</v>
       </c>
       <c r="L17">
-        <v>1.034960812143072</v>
+        <v>1.034625868568421</v>
       </c>
       <c r="M17">
-        <v>1.045194926362326</v>
+        <v>1.04474504828102</v>
       </c>
       <c r="N17">
-        <v>1.013907198605235</v>
+        <v>1.015177284435851</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04546735081893</v>
+        <v>1.045111722788316</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039241613541207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03872298574641</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022710706662806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003084139506341</v>
+        <v>1.002761114519055</v>
       </c>
       <c r="D18">
-        <v>1.026454895845559</v>
+        <v>1.025668594452695</v>
       </c>
       <c r="E18">
-        <v>1.021609123561802</v>
+        <v>1.021261765600191</v>
       </c>
       <c r="F18">
-        <v>1.031885823941753</v>
+        <v>1.031417516659181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046262206271883</v>
+        <v>1.045948759015255</v>
       </c>
       <c r="J18">
-        <v>1.030031135977535</v>
+        <v>1.029720214574331</v>
       </c>
       <c r="K18">
-        <v>1.039832090407084</v>
+        <v>1.0390584909364</v>
       </c>
       <c r="L18">
-        <v>1.03506499653917</v>
+        <v>1.034723315319086</v>
       </c>
       <c r="M18">
-        <v>1.045175964607681</v>
+        <v>1.044715117666737</v>
       </c>
       <c r="N18">
-        <v>1.01394752484991</v>
+        <v>1.015165507383409</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045215594015027</v>
+        <v>1.044851219718476</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039303120884444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038771599778332</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022706677757327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003106392493611</v>
+        <v>1.00279578847735</v>
       </c>
       <c r="D19">
-        <v>1.026350097237184</v>
+        <v>1.025579115392882</v>
       </c>
       <c r="E19">
-        <v>1.021319620878628</v>
+        <v>1.020983875111029</v>
       </c>
       <c r="F19">
-        <v>1.03149683460098</v>
+        <v>1.031038985637584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046169482048038</v>
+        <v>1.045864735600699</v>
       </c>
       <c r="J19">
-        <v>1.029918611360968</v>
+        <v>1.029619576590044</v>
       </c>
       <c r="K19">
-        <v>1.039666792567274</v>
+        <v>1.03890820181543</v>
       </c>
       <c r="L19">
-        <v>1.034717598304492</v>
+        <v>1.034387314123198</v>
       </c>
       <c r="M19">
-        <v>1.044731420247698</v>
+        <v>1.044280833133306</v>
       </c>
       <c r="N19">
-        <v>1.01389346652073</v>
+        <v>1.015115625978152</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044540005576111</v>
+        <v>1.044183627874115</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039192621025598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038672336193926</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022651442590717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001564844098454</v>
+        <v>1.001343761220482</v>
       </c>
       <c r="D20">
-        <v>1.025124089299842</v>
+        <v>1.024455404365242</v>
       </c>
       <c r="E20">
-        <v>1.01942162100666</v>
+        <v>1.019148371387155</v>
       </c>
       <c r="F20">
-        <v>1.029591597546122</v>
+        <v>1.029202917697647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04568021712292</v>
+        <v>1.045430519712411</v>
       </c>
       <c r="J20">
-        <v>1.02903557661833</v>
+        <v>1.02882298122122</v>
       </c>
       <c r="K20">
-        <v>1.038739093918692</v>
+        <v>1.038081446365096</v>
       </c>
       <c r="L20">
-        <v>1.033131350113227</v>
+        <v>1.032862673782028</v>
       </c>
       <c r="M20">
-        <v>1.04313333373234</v>
+        <v>1.042750995880451</v>
       </c>
       <c r="N20">
-        <v>1.01357195226362</v>
+        <v>1.014946289419799</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042750204536353</v>
+        <v>1.04244762549923</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038540611513005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038092087015726</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022449496815243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.997738905141981</v>
+        <v>0.9977469430599147</v>
       </c>
       <c r="D21">
-        <v>1.022572605404899</v>
+        <v>1.022133735010039</v>
       </c>
       <c r="E21">
-        <v>1.015981823466632</v>
+        <v>1.015846647962138</v>
       </c>
       <c r="F21">
-        <v>1.026531468371566</v>
+        <v>1.02630199114771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04484582437839</v>
+        <v>1.044723970380646</v>
       </c>
       <c r="J21">
-        <v>1.027331466936346</v>
+        <v>1.027339166623306</v>
       </c>
       <c r="K21">
-        <v>1.037138590785885</v>
+        <v>1.036707569471463</v>
       </c>
       <c r="L21">
-        <v>1.030666611882492</v>
+        <v>1.030533893993702</v>
       </c>
       <c r="M21">
-        <v>1.041027043979373</v>
+        <v>1.04080162885076</v>
       </c>
       <c r="N21">
-        <v>1.012996790305333</v>
+        <v>1.014962824730937</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041042543644263</v>
+        <v>1.040864142795723</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037412213870906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037124248536747</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02218438262516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9953040982573065</v>
+        <v>0.9954558558519794</v>
       </c>
       <c r="D22">
-        <v>1.02095947865876</v>
+        <v>1.020664876676188</v>
       </c>
       <c r="E22">
-        <v>1.013830669791091</v>
+        <v>1.013783333933111</v>
       </c>
       <c r="F22">
-        <v>1.024627387756986</v>
+        <v>1.024498016522497</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044312117511532</v>
+        <v>1.044270506967437</v>
       </c>
       <c r="J22">
-        <v>1.026251791771816</v>
+        <v>1.026396799736524</v>
       </c>
       <c r="K22">
-        <v>1.036126853385558</v>
+        <v>1.035837780931903</v>
       </c>
       <c r="L22">
-        <v>1.029133028941603</v>
+        <v>1.029086597693422</v>
       </c>
       <c r="M22">
-        <v>1.03972626498428</v>
+        <v>1.039599298847645</v>
       </c>
       <c r="N22">
-        <v>1.012632894178738</v>
+        <v>1.014966346906433</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040013064323829</v>
+        <v>1.039912579064555</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03668341487375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036494512797174</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022015324575658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9965912534997466</v>
+        <v>0.9966568312807312</v>
       </c>
       <c r="D23">
-        <v>1.021806619724773</v>
+        <v>1.021428637074595</v>
       </c>
       <c r="E23">
-        <v>1.014967244546626</v>
+        <v>1.014868164563517</v>
       </c>
       <c r="F23">
-        <v>1.025632370046123</v>
+        <v>1.025444627464569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044591319435734</v>
+        <v>1.044502506302961</v>
       </c>
       <c r="J23">
-        <v>1.026818798267312</v>
+        <v>1.02688154311412</v>
       </c>
       <c r="K23">
-        <v>1.036655012196517</v>
+        <v>1.036283946368149</v>
       </c>
       <c r="L23">
-        <v>1.029941832352985</v>
+        <v>1.029844596830716</v>
       </c>
       <c r="M23">
-        <v>1.040411127107165</v>
+        <v>1.040226786004</v>
       </c>
       <c r="N23">
-        <v>1.012823327062697</v>
+        <v>1.014920793031506</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040555086937885</v>
+        <v>1.040409193310828</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037047242137991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036799426073143</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022100243952178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001584541580164</v>
+        <v>1.001363947072671</v>
       </c>
       <c r="D24">
-        <v>1.025112759442243</v>
+        <v>1.024444765275769</v>
       </c>
       <c r="E24">
-        <v>1.019398114970981</v>
+        <v>1.019125713780376</v>
       </c>
       <c r="F24">
-        <v>1.02955088959281</v>
+        <v>1.029162769444424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045665636647235</v>
+        <v>1.045416422021568</v>
       </c>
       <c r="J24">
-        <v>1.029021732016747</v>
+        <v>1.028809593876339</v>
       </c>
       <c r="K24">
-        <v>1.038712766589619</v>
+        <v>1.038055784591162</v>
       </c>
       <c r="L24">
-        <v>1.033092931422771</v>
+        <v>1.032825083740761</v>
       </c>
       <c r="M24">
-        <v>1.043078198498796</v>
+        <v>1.042696403756628</v>
       </c>
       <c r="N24">
-        <v>1.013564389783069</v>
+        <v>1.014936634912473</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042665891878968</v>
+        <v>1.042363727780663</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038494689619079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038043965650354</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022439239902692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007208462923454</v>
+        <v>1.006802413157976</v>
       </c>
       <c r="D25">
-        <v>1.028858340031293</v>
+        <v>1.027956516614378</v>
       </c>
       <c r="E25">
-        <v>1.024433130221342</v>
+        <v>1.024034850569971</v>
       </c>
       <c r="F25">
-        <v>1.034001139174467</v>
+        <v>1.033459869646582</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046844316870762</v>
+        <v>1.046477170059165</v>
       </c>
       <c r="J25">
-        <v>1.031495645189281</v>
+        <v>1.031102997749596</v>
       </c>
       <c r="K25">
-        <v>1.041024595915635</v>
+        <v>1.040135808881535</v>
       </c>
       <c r="L25">
-        <v>1.036663634209105</v>
+        <v>1.036271171602351</v>
       </c>
       <c r="M25">
-        <v>1.046093602841473</v>
+        <v>1.045560056036801</v>
       </c>
       <c r="N25">
-        <v>1.014396687236923</v>
+        <v>1.015501959999861</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045052371188042</v>
+        <v>1.044630107188644</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040126410122464</v>
+        <v>1.039511486026611</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022838096464456</v>
       </c>
     </row>
   </sheetData>
